--- a/public/excel/maret.xlsx
+++ b/public/excel/maret.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/salajurakan/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C251B5BD-456D-394A-A6FE-EBCC8680005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66FA123-91B0-F14E-8F37-78FCC9FECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPENGANTAR" sheetId="12" r:id="rId1"/>
@@ -3617,6 +3617,72 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3647,77 +3713,20 @@
     <xf numFmtId="168" fontId="10" fillId="0" borderId="79" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3725,6 +3734,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,54 +3764,81 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="69" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="70" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3803,65 +3860,47 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3869,50 +3908,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="84" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3938,24 +3956,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3965,6 +3965,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3984,33 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="79" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="48" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="99" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="69" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="99" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="70" xfId="48" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4188,7 +4188,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sr Pengantar"/>
@@ -5249,8 +5249,8 @@
   </sheetPr>
   <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:C59"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -5474,81 +5474,81 @@
       <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" s="33" customFormat="1" ht="15" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="370" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="364" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="371"/>
-      <c r="F9" s="383" t="s">
+      <c r="E9" s="367"/>
+      <c r="F9" s="363" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="370"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="371"/>
-      <c r="N9" s="383" t="s">
+      <c r="G9" s="364"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="364"/>
+      <c r="L9" s="364"/>
+      <c r="M9" s="367"/>
+      <c r="N9" s="363" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="370"/>
-      <c r="P9" s="370"/>
-      <c r="Q9" s="370"/>
-      <c r="R9" s="370"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1">
-      <c r="A10" s="356"/>
-      <c r="B10" s="360"/>
-      <c r="C10" s="361"/>
-      <c r="D10" s="377" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="364" t="s">
+      <c r="A10" s="378"/>
+      <c r="B10" s="382"/>
+      <c r="C10" s="383"/>
+      <c r="D10" s="376" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="386" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="378" t="s">
+      <c r="F10" s="368" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="379"/>
-      <c r="H10" s="380"/>
-      <c r="I10" s="378" t="s">
+      <c r="G10" s="369"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="379"/>
-      <c r="K10" s="380"/>
-      <c r="L10" s="387" t="s">
+      <c r="J10" s="369"/>
+      <c r="K10" s="370"/>
+      <c r="L10" s="359" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="386" t="s">
+      <c r="M10" s="357" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="381" t="s">
+      <c r="N10" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="382"/>
-      <c r="P10" s="381" t="s">
+      <c r="O10" s="362"/>
+      <c r="P10" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="384" t="s">
+      <c r="Q10" s="362"/>
+      <c r="R10" s="365" t="s">
         <v>207</v>
       </c>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" s="33" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="357"/>
-      <c r="B11" s="362"/>
-      <c r="C11" s="363"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="384"/>
+      <c r="C11" s="385"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
       <c r="F11" s="36" t="s">
         <v>0</v>
       </c>
@@ -5567,8 +5567,8 @@
       <c r="K11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="388"/>
-      <c r="M11" s="365"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="358"/>
       <c r="N11" s="37" t="s">
         <v>36</v>
       </c>
@@ -5581,17 +5581,17 @@
       <c r="Q11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="R11" s="385"/>
+      <c r="R11" s="366"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="368">
+      <c r="B12" s="387">
         <v>2</v>
       </c>
-      <c r="C12" s="369"/>
+      <c r="C12" s="388"/>
       <c r="D12" s="39">
         <v>3</v>
       </c>
@@ -5643,11 +5643,11 @@
       <c r="A13" s="271">
         <v>1</v>
       </c>
-      <c r="B13" s="366">
+      <c r="B13" s="355">
         <f>INPUT!C3</f>
         <v>0</v>
       </c>
-      <c r="C13" s="367"/>
+      <c r="C13" s="356"/>
       <c r="D13" s="272">
         <f>INPUT!D3</f>
         <v>0</v>
@@ -5714,11 +5714,11 @@
       <c r="A14" s="277">
         <v>2</v>
       </c>
-      <c r="B14" s="366">
+      <c r="B14" s="355">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C14" s="367"/>
+      <c r="C14" s="356"/>
       <c r="D14" s="272">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -5785,11 +5785,11 @@
       <c r="A15" s="277">
         <v>3</v>
       </c>
-      <c r="B15" s="366">
+      <c r="B15" s="355">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C15" s="367"/>
+      <c r="C15" s="356"/>
       <c r="D15" s="272">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -5856,11 +5856,11 @@
       <c r="A16" s="277">
         <v>4</v>
       </c>
-      <c r="B16" s="366">
+      <c r="B16" s="355">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="367"/>
+      <c r="C16" s="356"/>
       <c r="D16" s="272">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -5927,11 +5927,11 @@
       <c r="A17" s="271">
         <v>5</v>
       </c>
-      <c r="B17" s="366">
+      <c r="B17" s="355">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C17" s="367"/>
+      <c r="C17" s="356"/>
       <c r="D17" s="272">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -5998,11 +5998,11 @@
       <c r="A18" s="277">
         <v>6</v>
       </c>
-      <c r="B18" s="366">
+      <c r="B18" s="355">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C18" s="367"/>
+      <c r="C18" s="356"/>
       <c r="D18" s="272">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -6069,11 +6069,11 @@
       <c r="A19" s="277">
         <v>7</v>
       </c>
-      <c r="B19" s="366">
+      <c r="B19" s="355">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C19" s="367"/>
+      <c r="C19" s="356"/>
       <c r="D19" s="272">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -6140,11 +6140,11 @@
       <c r="A20" s="277">
         <v>8</v>
       </c>
-      <c r="B20" s="366">
+      <c r="B20" s="355">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C20" s="367"/>
+      <c r="C20" s="356"/>
       <c r="D20" s="272">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -6211,11 +6211,11 @@
       <c r="A21" s="278">
         <v>9</v>
       </c>
-      <c r="B21" s="366">
+      <c r="B21" s="355">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C21" s="367"/>
+      <c r="C21" s="356"/>
       <c r="D21" s="272">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -6282,11 +6282,11 @@
       <c r="A22" s="277">
         <v>10</v>
       </c>
-      <c r="B22" s="366">
+      <c r="B22" s="355">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C22" s="367"/>
+      <c r="C22" s="356"/>
       <c r="D22" s="272">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -6353,11 +6353,11 @@
       <c r="A23" s="277">
         <v>11</v>
       </c>
-      <c r="B23" s="366">
+      <c r="B23" s="355">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C23" s="367"/>
+      <c r="C23" s="356"/>
       <c r="D23" s="272">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -6424,11 +6424,11 @@
       <c r="A24" s="277">
         <v>12</v>
       </c>
-      <c r="B24" s="366">
+      <c r="B24" s="355">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C24" s="367"/>
+      <c r="C24" s="356"/>
       <c r="D24" s="272">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -6495,11 +6495,11 @@
       <c r="A25" s="278">
         <v>13</v>
       </c>
-      <c r="B25" s="366">
+      <c r="B25" s="355">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C25" s="367"/>
+      <c r="C25" s="356"/>
       <c r="D25" s="272">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -6566,11 +6566,11 @@
       <c r="A26" s="277">
         <v>14</v>
       </c>
-      <c r="B26" s="366">
+      <c r="B26" s="355">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C26" s="367"/>
+      <c r="C26" s="356"/>
       <c r="D26" s="272">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -6637,11 +6637,11 @@
       <c r="A27" s="277">
         <v>15</v>
       </c>
-      <c r="B27" s="366">
+      <c r="B27" s="355">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C27" s="367"/>
+      <c r="C27" s="356"/>
       <c r="D27" s="272">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -6708,11 +6708,11 @@
       <c r="A28" s="277">
         <v>16</v>
       </c>
-      <c r="B28" s="366">
+      <c r="B28" s="355">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C28" s="367"/>
+      <c r="C28" s="356"/>
       <c r="D28" s="272">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -6779,11 +6779,11 @@
       <c r="A29" s="278">
         <v>17</v>
       </c>
-      <c r="B29" s="366">
+      <c r="B29" s="355">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C29" s="367"/>
+      <c r="C29" s="356"/>
       <c r="D29" s="272">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -6850,11 +6850,11 @@
       <c r="A30" s="277">
         <v>18</v>
       </c>
-      <c r="B30" s="366">
+      <c r="B30" s="355">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C30" s="367"/>
+      <c r="C30" s="356"/>
       <c r="D30" s="272">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -6921,11 +6921,11 @@
       <c r="A31" s="277">
         <v>19</v>
       </c>
-      <c r="B31" s="366">
+      <c r="B31" s="355">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C31" s="367"/>
+      <c r="C31" s="356"/>
       <c r="D31" s="272">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -6992,11 +6992,11 @@
       <c r="A32" s="277">
         <v>20</v>
       </c>
-      <c r="B32" s="366">
+      <c r="B32" s="355">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C32" s="367"/>
+      <c r="C32" s="356"/>
       <c r="D32" s="272">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -7063,11 +7063,11 @@
       <c r="A33" s="278">
         <v>21</v>
       </c>
-      <c r="B33" s="366">
+      <c r="B33" s="355">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C33" s="367"/>
+      <c r="C33" s="356"/>
       <c r="D33" s="272">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -7134,11 +7134,11 @@
       <c r="A34" s="277">
         <v>22</v>
       </c>
-      <c r="B34" s="366">
+      <c r="B34" s="355">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C34" s="367"/>
+      <c r="C34" s="356"/>
       <c r="D34" s="272">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -7205,11 +7205,11 @@
       <c r="A35" s="277">
         <v>23</v>
       </c>
-      <c r="B35" s="366">
+      <c r="B35" s="355">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C35" s="367"/>
+      <c r="C35" s="356"/>
       <c r="D35" s="272">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -7276,11 +7276,11 @@
       <c r="A36" s="277">
         <v>24</v>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="355">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C36" s="367"/>
+      <c r="C36" s="356"/>
       <c r="D36" s="272">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -7347,11 +7347,11 @@
       <c r="A37" s="42">
         <v>25</v>
       </c>
-      <c r="B37" s="366">
+      <c r="B37" s="355">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C37" s="367"/>
+      <c r="C37" s="356"/>
       <c r="D37" s="272">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -7418,11 +7418,11 @@
       <c r="A38" s="42">
         <v>26</v>
       </c>
-      <c r="B38" s="366">
+      <c r="B38" s="355">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C38" s="367"/>
+      <c r="C38" s="356"/>
       <c r="D38" s="272">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -7489,11 +7489,11 @@
       <c r="A39" s="42">
         <v>27</v>
       </c>
-      <c r="B39" s="366">
+      <c r="B39" s="355">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C39" s="367"/>
+      <c r="C39" s="356"/>
       <c r="D39" s="272">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -7560,11 +7560,11 @@
       <c r="A40" s="42">
         <v>28</v>
       </c>
-      <c r="B40" s="366">
+      <c r="B40" s="355">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C40" s="367"/>
+      <c r="C40" s="356"/>
       <c r="D40" s="272">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -7631,11 +7631,11 @@
       <c r="A41" s="42">
         <v>29</v>
       </c>
-      <c r="B41" s="366">
+      <c r="B41" s="355">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C41" s="367"/>
+      <c r="C41" s="356"/>
       <c r="D41" s="272">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -7702,11 +7702,11 @@
       <c r="A42" s="42">
         <v>30</v>
       </c>
-      <c r="B42" s="366">
+      <c r="B42" s="355">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C42" s="367"/>
+      <c r="C42" s="356"/>
       <c r="D42" s="272">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -7773,11 +7773,11 @@
       <c r="A43" s="42">
         <v>31</v>
       </c>
-      <c r="B43" s="366">
+      <c r="B43" s="355">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C43" s="367"/>
+      <c r="C43" s="356"/>
       <c r="D43" s="272">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -7844,11 +7844,11 @@
       <c r="A44" s="42">
         <v>32</v>
       </c>
-      <c r="B44" s="366">
+      <c r="B44" s="355">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C44" s="367"/>
+      <c r="C44" s="356"/>
       <c r="D44" s="272">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -7915,11 +7915,11 @@
       <c r="A45" s="42">
         <v>33</v>
       </c>
-      <c r="B45" s="366">
+      <c r="B45" s="355">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C45" s="367"/>
+      <c r="C45" s="356"/>
       <c r="D45" s="272">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -7986,11 +7986,11 @@
       <c r="A46" s="42">
         <v>34</v>
       </c>
-      <c r="B46" s="366">
+      <c r="B46" s="355">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C46" s="367"/>
+      <c r="C46" s="356"/>
       <c r="D46" s="272">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -8057,11 +8057,11 @@
       <c r="A47" s="42">
         <v>35</v>
       </c>
-      <c r="B47" s="366">
+      <c r="B47" s="355">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C47" s="367"/>
+      <c r="C47" s="356"/>
       <c r="D47" s="272">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -8128,11 +8128,11 @@
       <c r="A48" s="42">
         <v>36</v>
       </c>
-      <c r="B48" s="366">
+      <c r="B48" s="355">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C48" s="367"/>
+      <c r="C48" s="356"/>
       <c r="D48" s="272">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -8199,11 +8199,11 @@
       <c r="A49" s="42">
         <v>37</v>
       </c>
-      <c r="B49" s="366">
+      <c r="B49" s="355">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="367"/>
+      <c r="C49" s="356"/>
       <c r="D49" s="272">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -8270,11 +8270,11 @@
       <c r="A50" s="42">
         <v>38</v>
       </c>
-      <c r="B50" s="366">
+      <c r="B50" s="355">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C50" s="367"/>
+      <c r="C50" s="356"/>
       <c r="D50" s="272">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -8341,11 +8341,11 @@
       <c r="A51" s="42">
         <v>39</v>
       </c>
-      <c r="B51" s="366">
+      <c r="B51" s="355">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C51" s="367"/>
+      <c r="C51" s="356"/>
       <c r="D51" s="272">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -8412,11 +8412,11 @@
       <c r="A52" s="42">
         <v>40</v>
       </c>
-      <c r="B52" s="366">
+      <c r="B52" s="355">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C52" s="367"/>
+      <c r="C52" s="356"/>
       <c r="D52" s="272">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -8483,11 +8483,11 @@
       <c r="A53" s="42">
         <v>41</v>
       </c>
-      <c r="B53" s="366">
+      <c r="B53" s="355">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C53" s="367"/>
+      <c r="C53" s="356"/>
       <c r="D53" s="272">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -8554,11 +8554,11 @@
       <c r="A54" s="42">
         <v>42</v>
       </c>
-      <c r="B54" s="366">
+      <c r="B54" s="355">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C54" s="367"/>
+      <c r="C54" s="356"/>
       <c r="D54" s="272">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -8625,11 +8625,11 @@
       <c r="A55" s="42">
         <v>43</v>
       </c>
-      <c r="B55" s="366">
+      <c r="B55" s="355">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C55" s="367"/>
+      <c r="C55" s="356"/>
       <c r="D55" s="272">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -8696,11 +8696,11 @@
       <c r="A56" s="42">
         <v>44</v>
       </c>
-      <c r="B56" s="366">
+      <c r="B56" s="355">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="367"/>
+      <c r="C56" s="356"/>
       <c r="D56" s="272">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -8767,11 +8767,11 @@
       <c r="A57" s="42">
         <v>45</v>
       </c>
-      <c r="B57" s="366">
+      <c r="B57" s="355">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C57" s="367"/>
+      <c r="C57" s="356"/>
       <c r="D57" s="272">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -8838,11 +8838,11 @@
       <c r="A58" s="42">
         <v>46</v>
       </c>
-      <c r="B58" s="366">
+      <c r="B58" s="355">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C58" s="367"/>
+      <c r="C58" s="356"/>
       <c r="D58" s="272">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -8909,11 +8909,11 @@
       <c r="A59" s="42">
         <v>47</v>
       </c>
-      <c r="B59" s="366">
+      <c r="B59" s="355">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C59" s="367"/>
+      <c r="C59" s="356"/>
       <c r="D59" s="272">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -8980,11 +8980,11 @@
       <c r="A60" s="42">
         <v>48</v>
       </c>
-      <c r="B60" s="366">
+      <c r="B60" s="355">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C60" s="367"/>
+      <c r="C60" s="356"/>
       <c r="D60" s="272">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -9051,11 +9051,11 @@
       <c r="A61" s="42">
         <v>49</v>
       </c>
-      <c r="B61" s="366">
+      <c r="B61" s="355">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C61" s="367"/>
+      <c r="C61" s="356"/>
       <c r="D61" s="272">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -9122,11 +9122,11 @@
       <c r="A62" s="42">
         <v>50</v>
       </c>
-      <c r="B62" s="366">
+      <c r="B62" s="355">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C62" s="367"/>
+      <c r="C62" s="356"/>
       <c r="D62" s="272">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -9193,11 +9193,11 @@
       <c r="A63" s="42">
         <v>51</v>
       </c>
-      <c r="B63" s="366">
+      <c r="B63" s="355">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C63" s="367"/>
+      <c r="C63" s="356"/>
       <c r="D63" s="272">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -9264,11 +9264,11 @@
       <c r="A64" s="42">
         <v>52</v>
       </c>
-      <c r="B64" s="366">
+      <c r="B64" s="355">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C64" s="367"/>
+      <c r="C64" s="356"/>
       <c r="D64" s="272">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -9335,11 +9335,11 @@
       <c r="A65" s="42">
         <v>53</v>
       </c>
-      <c r="B65" s="366">
+      <c r="B65" s="355">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C65" s="367"/>
+      <c r="C65" s="356"/>
       <c r="D65" s="272">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -9406,11 +9406,11 @@
       <c r="A66" s="42">
         <v>54</v>
       </c>
-      <c r="B66" s="366">
+      <c r="B66" s="355">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C66" s="367"/>
+      <c r="C66" s="356"/>
       <c r="D66" s="272">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -9477,11 +9477,11 @@
       <c r="A67" s="42">
         <v>55</v>
       </c>
-      <c r="B67" s="366">
+      <c r="B67" s="355">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C67" s="367"/>
+      <c r="C67" s="356"/>
       <c r="D67" s="272">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -9548,11 +9548,11 @@
       <c r="A68" s="42">
         <v>56</v>
       </c>
-      <c r="B68" s="366">
+      <c r="B68" s="355">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C68" s="367"/>
+      <c r="C68" s="356"/>
       <c r="D68" s="272">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -9619,11 +9619,11 @@
       <c r="A69" s="42">
         <v>57</v>
       </c>
-      <c r="B69" s="366">
+      <c r="B69" s="355">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C69" s="367"/>
+      <c r="C69" s="356"/>
       <c r="D69" s="272">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -9690,11 +9690,11 @@
       <c r="A70" s="42">
         <v>58</v>
       </c>
-      <c r="B70" s="366">
+      <c r="B70" s="355">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C70" s="367"/>
+      <c r="C70" s="356"/>
       <c r="D70" s="272">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -9761,11 +9761,11 @@
       <c r="A71" s="42">
         <v>59</v>
       </c>
-      <c r="B71" s="366">
+      <c r="B71" s="355">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C71" s="367"/>
+      <c r="C71" s="356"/>
       <c r="D71" s="272">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -9832,11 +9832,11 @@
       <c r="A72" s="42">
         <v>60</v>
       </c>
-      <c r="B72" s="366">
+      <c r="B72" s="355">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C72" s="367"/>
+      <c r="C72" s="356"/>
       <c r="D72" s="272">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -9903,11 +9903,11 @@
       <c r="A73" s="42">
         <v>61</v>
       </c>
-      <c r="B73" s="366">
+      <c r="B73" s="355">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C73" s="367"/>
+      <c r="C73" s="356"/>
       <c r="D73" s="272">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -9974,11 +9974,11 @@
       <c r="A74" s="42">
         <v>62</v>
       </c>
-      <c r="B74" s="366">
+      <c r="B74" s="355">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C74" s="367"/>
+      <c r="C74" s="356"/>
       <c r="D74" s="272">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -10045,11 +10045,11 @@
       <c r="A75" s="42">
         <v>63</v>
       </c>
-      <c r="B75" s="366">
+      <c r="B75" s="355">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C75" s="367"/>
+      <c r="C75" s="356"/>
       <c r="D75" s="272">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -10116,11 +10116,11 @@
       <c r="A76" s="42">
         <v>64</v>
       </c>
-      <c r="B76" s="366">
+      <c r="B76" s="355">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C76" s="367"/>
+      <c r="C76" s="356"/>
       <c r="D76" s="272">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -10187,11 +10187,11 @@
       <c r="A77" s="42">
         <v>65</v>
       </c>
-      <c r="B77" s="366">
+      <c r="B77" s="355">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C77" s="367"/>
+      <c r="C77" s="356"/>
       <c r="D77" s="272">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -10258,11 +10258,11 @@
       <c r="A78" s="42">
         <v>66</v>
       </c>
-      <c r="B78" s="366">
+      <c r="B78" s="355">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C78" s="367"/>
+      <c r="C78" s="356"/>
       <c r="D78" s="272">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -10329,11 +10329,11 @@
       <c r="A79" s="42">
         <v>67</v>
       </c>
-      <c r="B79" s="366">
+      <c r="B79" s="355">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C79" s="367"/>
+      <c r="C79" s="356"/>
       <c r="D79" s="272">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -10400,11 +10400,11 @@
       <c r="A80" s="42">
         <v>68</v>
       </c>
-      <c r="B80" s="366">
+      <c r="B80" s="355">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C80" s="367"/>
+      <c r="C80" s="356"/>
       <c r="D80" s="272">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -10471,11 +10471,11 @@
       <c r="A81" s="42">
         <v>69</v>
       </c>
-      <c r="B81" s="366">
+      <c r="B81" s="355">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C81" s="367"/>
+      <c r="C81" s="356"/>
       <c r="D81" s="272">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -10542,11 +10542,11 @@
       <c r="A82" s="42">
         <v>70</v>
       </c>
-      <c r="B82" s="366">
+      <c r="B82" s="355">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C82" s="367"/>
+      <c r="C82" s="356"/>
       <c r="D82" s="272">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -10613,11 +10613,11 @@
       <c r="A83" s="42">
         <v>71</v>
       </c>
-      <c r="B83" s="366">
+      <c r="B83" s="355">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C83" s="367"/>
+      <c r="C83" s="356"/>
       <c r="D83" s="272">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -10684,11 +10684,11 @@
       <c r="A84" s="42">
         <v>72</v>
       </c>
-      <c r="B84" s="366">
+      <c r="B84" s="355">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C84" s="367"/>
+      <c r="C84" s="356"/>
       <c r="D84" s="272">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -10753,8 +10753,8 @@
     </row>
     <row r="85" spans="1:19" s="33" customFormat="1" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="190"/>
-      <c r="B85" s="375"/>
-      <c r="C85" s="376"/>
+      <c r="B85" s="374"/>
+      <c r="C85" s="375"/>
       <c r="D85" s="48"/>
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
@@ -10773,11 +10773,11 @@
       <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" s="33" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="372" t="s">
+      <c r="A86" s="371" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="373"/>
-      <c r="C86" s="374"/>
+      <c r="B86" s="372"/>
+      <c r="C86" s="373"/>
       <c r="D86" s="55">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -10787,7 +10787,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F86" s="57">
-        <f>SUM(F14:F85)</f>
+        <f>SUM(F13:F85)</f>
         <v>0</v>
       </c>
       <c r="G86" s="58"/>
@@ -10796,7 +10796,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I86" s="57">
-        <f>SUM(I14:I85)</f>
+        <f>SUM(I13:I85)</f>
         <v>0</v>
       </c>
       <c r="J86" s="58"/>
@@ -11238,73 +11238,12 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="F9:M9"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="D10:D11"/>
@@ -11321,12 +11260,73 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="F9:M9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.61" right="0.15748031496063" top="0.78740157480314998" bottom="0.39370078740157499" header="0.31496062992126" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11399,10 +11399,10 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="399" t="s">
+      <c r="S2" s="394" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="400"/>
+      <c r="T2" s="395"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -11560,51 +11560,51 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A9" s="355" t="s">
+      <c r="A9" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="358" t="s">
+      <c r="B9" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="359"/>
-      <c r="D9" s="394" t="s">
+      <c r="C9" s="381"/>
+      <c r="D9" s="391" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="394" t="s">
+      <c r="E9" s="391" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="404" t="s">
+      <c r="F9" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="404"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="404" t="s">
+      <c r="G9" s="399"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="399" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="404"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="401" t="s">
+      <c r="J9" s="399"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="396" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="402"/>
-      <c r="N9" s="403"/>
-      <c r="O9" s="401" t="s">
+      <c r="M9" s="397"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="396" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="402"/>
-      <c r="Q9" s="403"/>
-      <c r="R9" s="383" t="s">
+      <c r="P9" s="397"/>
+      <c r="Q9" s="398"/>
+      <c r="R9" s="363" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="370"/>
-      <c r="T9" s="405"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="400"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="357"/>
-      <c r="B10" s="362"/>
-      <c r="C10" s="363"/>
-      <c r="D10" s="365"/>
-      <c r="E10" s="365"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="384"/>
+      <c r="C10" s="385"/>
+      <c r="D10" s="358"/>
+      <c r="E10" s="358"/>
       <c r="F10" s="131" t="s">
         <v>44</v>
       </c>
@@ -11655,10 +11655,10 @@
       <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="397">
+      <c r="B11" s="404">
         <v>2</v>
       </c>
-      <c r="C11" s="398"/>
+      <c r="C11" s="405"/>
       <c r="D11" s="134">
         <v>3</v>
       </c>
@@ -11737,11 +11737,11 @@
       <c r="A13" s="256">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>INPUT!C4</f>
         <v>0</v>
       </c>
-      <c r="C13" s="396"/>
+      <c r="C13" s="390"/>
       <c r="D13" s="213">
         <f>INPUT!D4</f>
         <v>0</v>
@@ -11776,11 +11776,11 @@
       <c r="A14" s="256">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>INPUT!C5</f>
         <v>0</v>
       </c>
-      <c r="C14" s="396"/>
+      <c r="C14" s="390"/>
       <c r="D14" s="213">
         <f>INPUT!D5</f>
         <v>0</v>
@@ -11815,11 +11815,11 @@
       <c r="A15" s="256">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>INPUT!C6</f>
         <v>0</v>
       </c>
-      <c r="C15" s="396"/>
+      <c r="C15" s="390"/>
       <c r="D15" s="213">
         <f>INPUT!D6</f>
         <v>0</v>
@@ -11854,11 +11854,11 @@
       <c r="A16" s="256">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>INPUT!C7</f>
         <v>0</v>
       </c>
-      <c r="C16" s="396"/>
+      <c r="C16" s="390"/>
       <c r="D16" s="245">
         <f>INPUT!D7</f>
         <v>0</v>
@@ -11893,11 +11893,11 @@
       <c r="A17" s="256">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>INPUT!C8</f>
         <v>0</v>
       </c>
-      <c r="C17" s="396"/>
+      <c r="C17" s="390"/>
       <c r="D17" s="245">
         <f>INPUT!D8</f>
         <v>0</v>
@@ -11932,11 +11932,11 @@
       <c r="A18" s="256">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>INPUT!C9</f>
         <v>0</v>
       </c>
-      <c r="C18" s="396"/>
+      <c r="C18" s="390"/>
       <c r="D18" s="245">
         <f>INPUT!D9</f>
         <v>0</v>
@@ -11971,11 +11971,11 @@
       <c r="A19" s="256">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>INPUT!C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="396"/>
+      <c r="C19" s="390"/>
       <c r="D19" s="245">
         <f>INPUT!D10</f>
         <v>0</v>
@@ -12010,11 +12010,11 @@
       <c r="A20" s="256">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>INPUT!C11</f>
         <v>0</v>
       </c>
-      <c r="C20" s="396"/>
+      <c r="C20" s="390"/>
       <c r="D20" s="245">
         <f>INPUT!D11</f>
         <v>0</v>
@@ -12049,11 +12049,11 @@
       <c r="A21" s="256">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>INPUT!C12</f>
         <v>0</v>
       </c>
-      <c r="C21" s="396"/>
+      <c r="C21" s="390"/>
       <c r="D21" s="245">
         <f>INPUT!D12</f>
         <v>0</v>
@@ -12088,11 +12088,11 @@
       <c r="A22" s="256">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>INPUT!C13</f>
         <v>0</v>
       </c>
-      <c r="C22" s="396"/>
+      <c r="C22" s="390"/>
       <c r="D22" s="245">
         <f>INPUT!D13</f>
         <v>0</v>
@@ -12127,11 +12127,11 @@
       <c r="A23" s="256">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>INPUT!C14</f>
         <v>0</v>
       </c>
-      <c r="C23" s="396"/>
+      <c r="C23" s="390"/>
       <c r="D23" s="245">
         <f>INPUT!D14</f>
         <v>0</v>
@@ -12166,11 +12166,11 @@
       <c r="A24" s="256">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>INPUT!C15</f>
         <v>0</v>
       </c>
-      <c r="C24" s="396"/>
+      <c r="C24" s="390"/>
       <c r="D24" s="245">
         <f>INPUT!D15</f>
         <v>0</v>
@@ -12205,11 +12205,11 @@
       <c r="A25" s="256">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>INPUT!C16</f>
         <v>0</v>
       </c>
-      <c r="C25" s="396"/>
+      <c r="C25" s="390"/>
       <c r="D25" s="245">
         <f>INPUT!D16</f>
         <v>0</v>
@@ -12244,11 +12244,11 @@
       <c r="A26" s="256">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>INPUT!C17</f>
         <v>0</v>
       </c>
-      <c r="C26" s="396"/>
+      <c r="C26" s="390"/>
       <c r="D26" s="245">
         <f>INPUT!D17</f>
         <v>0</v>
@@ -12283,11 +12283,11 @@
       <c r="A27" s="256">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>INPUT!C18</f>
         <v>0</v>
       </c>
-      <c r="C27" s="396"/>
+      <c r="C27" s="390"/>
       <c r="D27" s="245">
         <f>INPUT!D18</f>
         <v>0</v>
@@ -12322,11 +12322,11 @@
       <c r="A28" s="256">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>INPUT!C19</f>
         <v>0</v>
       </c>
-      <c r="C28" s="396"/>
+      <c r="C28" s="390"/>
       <c r="D28" s="245">
         <f>INPUT!D19</f>
         <v>0</v>
@@ -12361,11 +12361,11 @@
       <c r="A29" s="256">
         <v>17</v>
       </c>
-      <c r="B29" s="389">
+      <c r="B29" s="392">
         <f>INPUT!C20</f>
         <v>0</v>
       </c>
-      <c r="C29" s="390"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="245">
         <f>INPUT!D20</f>
         <v>0</v>
@@ -12400,11 +12400,11 @@
       <c r="A30" s="256">
         <v>18</v>
       </c>
-      <c r="B30" s="389">
+      <c r="B30" s="392">
         <f>INPUT!C21</f>
         <v>0</v>
       </c>
-      <c r="C30" s="390"/>
+      <c r="C30" s="393"/>
       <c r="D30" s="245">
         <f>INPUT!D21</f>
         <v>0</v>
@@ -12439,11 +12439,11 @@
       <c r="A31" s="256">
         <v>19</v>
       </c>
-      <c r="B31" s="389">
+      <c r="B31" s="392">
         <f>INPUT!C22</f>
         <v>0</v>
       </c>
-      <c r="C31" s="390"/>
+      <c r="C31" s="393"/>
       <c r="D31" s="245">
         <f>INPUT!D22</f>
         <v>0</v>
@@ -12478,11 +12478,11 @@
       <c r="A32" s="256">
         <v>20</v>
       </c>
-      <c r="B32" s="389">
+      <c r="B32" s="392">
         <f>INPUT!C23</f>
         <v>0</v>
       </c>
-      <c r="C32" s="390"/>
+      <c r="C32" s="393"/>
       <c r="D32" s="245">
         <f>INPUT!D23</f>
         <v>0</v>
@@ -12517,11 +12517,11 @@
       <c r="A33" s="256">
         <v>21</v>
       </c>
-      <c r="B33" s="389">
+      <c r="B33" s="392">
         <f>INPUT!C24</f>
         <v>0</v>
       </c>
-      <c r="C33" s="390"/>
+      <c r="C33" s="393"/>
       <c r="D33" s="245">
         <f>INPUT!D24</f>
         <v>0</v>
@@ -12556,11 +12556,11 @@
       <c r="A34" s="256">
         <v>22</v>
       </c>
-      <c r="B34" s="389">
+      <c r="B34" s="392">
         <f>INPUT!C25</f>
         <v>0</v>
       </c>
-      <c r="C34" s="390"/>
+      <c r="C34" s="393"/>
       <c r="D34" s="245">
         <f>INPUT!D25</f>
         <v>0</v>
@@ -12595,11 +12595,11 @@
       <c r="A35" s="256">
         <v>23</v>
       </c>
-      <c r="B35" s="389">
+      <c r="B35" s="392">
         <f>INPUT!C26</f>
         <v>0</v>
       </c>
-      <c r="C35" s="390"/>
+      <c r="C35" s="393"/>
       <c r="D35" s="245">
         <f>INPUT!D26</f>
         <v>0</v>
@@ -12634,11 +12634,11 @@
       <c r="A36" s="256">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>INPUT!C27</f>
         <v>0</v>
       </c>
-      <c r="C36" s="396"/>
+      <c r="C36" s="390"/>
       <c r="D36" s="245">
         <f>INPUT!D27</f>
         <v>0</v>
@@ -12673,11 +12673,11 @@
       <c r="A37" s="256">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>INPUT!C28</f>
         <v>0</v>
       </c>
-      <c r="C37" s="396"/>
+      <c r="C37" s="390"/>
       <c r="D37" s="245">
         <f>INPUT!D28</f>
         <v>0</v>
@@ -12712,11 +12712,11 @@
       <c r="A38" s="256">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>INPUT!C29</f>
         <v>0</v>
       </c>
-      <c r="C38" s="396"/>
+      <c r="C38" s="390"/>
       <c r="D38" s="245">
         <f>INPUT!D29</f>
         <v>0</v>
@@ -12751,11 +12751,11 @@
       <c r="A39" s="256">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>INPUT!C30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="396"/>
+      <c r="C39" s="390"/>
       <c r="D39" s="245">
         <f>INPUT!D30</f>
         <v>0</v>
@@ -12790,11 +12790,11 @@
       <c r="A40" s="256">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>INPUT!C31</f>
         <v>0</v>
       </c>
-      <c r="C40" s="396"/>
+      <c r="C40" s="390"/>
       <c r="D40" s="245">
         <f>INPUT!D31</f>
         <v>0</v>
@@ -12829,11 +12829,11 @@
       <c r="A41" s="256">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>INPUT!C32</f>
         <v>0</v>
       </c>
-      <c r="C41" s="396"/>
+      <c r="C41" s="390"/>
       <c r="D41" s="245">
         <f>INPUT!D32</f>
         <v>0</v>
@@ -12868,11 +12868,11 @@
       <c r="A42" s="256">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>INPUT!C33</f>
         <v>0</v>
       </c>
-      <c r="C42" s="396"/>
+      <c r="C42" s="390"/>
       <c r="D42" s="245">
         <f>INPUT!D33</f>
         <v>0</v>
@@ -12907,11 +12907,11 @@
       <c r="A43" s="256">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>INPUT!C34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="396"/>
+      <c r="C43" s="390"/>
       <c r="D43" s="245">
         <f>INPUT!D34</f>
         <v>0</v>
@@ -12946,11 +12946,11 @@
       <c r="A44" s="256">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>INPUT!C35</f>
         <v>0</v>
       </c>
-      <c r="C44" s="396"/>
+      <c r="C44" s="390"/>
       <c r="D44" s="245">
         <f>INPUT!D35</f>
         <v>0</v>
@@ -12985,11 +12985,11 @@
       <c r="A45" s="256">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>INPUT!C36</f>
         <v>0</v>
       </c>
-      <c r="C45" s="396"/>
+      <c r="C45" s="390"/>
       <c r="D45" s="245">
         <f>INPUT!D36</f>
         <v>0</v>
@@ -13024,11 +13024,11 @@
       <c r="A46" s="256">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>INPUT!C37</f>
         <v>0</v>
       </c>
-      <c r="C46" s="396"/>
+      <c r="C46" s="390"/>
       <c r="D46" s="245">
         <f>INPUT!D37</f>
         <v>0</v>
@@ -13063,11 +13063,11 @@
       <c r="A47" s="256">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>INPUT!C38</f>
         <v>0</v>
       </c>
-      <c r="C47" s="396"/>
+      <c r="C47" s="390"/>
       <c r="D47" s="245">
         <f>INPUT!D38</f>
         <v>0</v>
@@ -13102,11 +13102,11 @@
       <c r="A48" s="256">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>INPUT!C39</f>
         <v>0</v>
       </c>
-      <c r="C48" s="396"/>
+      <c r="C48" s="390"/>
       <c r="D48" s="245">
         <f>INPUT!D39</f>
         <v>0</v>
@@ -13141,11 +13141,11 @@
       <c r="A49" s="256">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>INPUT!C40</f>
         <v>0</v>
       </c>
-      <c r="C49" s="396"/>
+      <c r="C49" s="390"/>
       <c r="D49" s="245">
         <f>INPUT!D40</f>
         <v>0</v>
@@ -13180,11 +13180,11 @@
       <c r="A50" s="256">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>INPUT!C41</f>
         <v>0</v>
       </c>
-      <c r="C50" s="396"/>
+      <c r="C50" s="390"/>
       <c r="D50" s="245">
         <f>INPUT!D41</f>
         <v>0</v>
@@ -13219,11 +13219,11 @@
       <c r="A51" s="256">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>INPUT!C42</f>
         <v>0</v>
       </c>
-      <c r="C51" s="396"/>
+      <c r="C51" s="390"/>
       <c r="D51" s="245">
         <f>INPUT!D42</f>
         <v>0</v>
@@ -13258,11 +13258,11 @@
       <c r="A52" s="256">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>INPUT!C43</f>
         <v>0</v>
       </c>
-      <c r="C52" s="396"/>
+      <c r="C52" s="390"/>
       <c r="D52" s="245">
         <f>INPUT!D43</f>
         <v>0</v>
@@ -13297,11 +13297,11 @@
       <c r="A53" s="256">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>INPUT!C44</f>
         <v>0</v>
       </c>
-      <c r="C53" s="396"/>
+      <c r="C53" s="390"/>
       <c r="D53" s="245">
         <f>INPUT!D44</f>
         <v>0</v>
@@ -13336,11 +13336,11 @@
       <c r="A54" s="256">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>INPUT!C45</f>
         <v>0</v>
       </c>
-      <c r="C54" s="396"/>
+      <c r="C54" s="390"/>
       <c r="D54" s="245">
         <f>INPUT!D45</f>
         <v>0</v>
@@ -13375,11 +13375,11 @@
       <c r="A55" s="256">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>INPUT!C46</f>
         <v>0</v>
       </c>
-      <c r="C55" s="396"/>
+      <c r="C55" s="390"/>
       <c r="D55" s="245">
         <f>INPUT!D46</f>
         <v>0</v>
@@ -13414,11 +13414,11 @@
       <c r="A56" s="256">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>INPUT!C47</f>
         <v>0</v>
       </c>
-      <c r="C56" s="396"/>
+      <c r="C56" s="390"/>
       <c r="D56" s="245">
         <f>INPUT!D47</f>
         <v>0</v>
@@ -13453,11 +13453,11 @@
       <c r="A57" s="256">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>INPUT!C48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="396"/>
+      <c r="C57" s="390"/>
       <c r="D57" s="245">
         <f>INPUT!D48</f>
         <v>0</v>
@@ -13492,11 +13492,11 @@
       <c r="A58" s="256">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>INPUT!C49</f>
         <v>0</v>
       </c>
-      <c r="C58" s="396"/>
+      <c r="C58" s="390"/>
       <c r="D58" s="245">
         <f>INPUT!D49</f>
         <v>0</v>
@@ -13531,11 +13531,11 @@
       <c r="A59" s="256">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>INPUT!C50</f>
         <v>0</v>
       </c>
-      <c r="C59" s="396"/>
+      <c r="C59" s="390"/>
       <c r="D59" s="245">
         <f>INPUT!D50</f>
         <v>0</v>
@@ -13570,11 +13570,11 @@
       <c r="A60" s="256">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>INPUT!C51</f>
         <v>0</v>
       </c>
-      <c r="C60" s="396"/>
+      <c r="C60" s="390"/>
       <c r="D60" s="245">
         <f>INPUT!D51</f>
         <v>0</v>
@@ -13609,11 +13609,11 @@
       <c r="A61" s="256">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>INPUT!C52</f>
         <v>0</v>
       </c>
-      <c r="C61" s="396"/>
+      <c r="C61" s="390"/>
       <c r="D61" s="245">
         <f>INPUT!D52</f>
         <v>0</v>
@@ -13648,11 +13648,11 @@
       <c r="A62" s="256">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>INPUT!C53</f>
         <v>0</v>
       </c>
-      <c r="C62" s="396"/>
+      <c r="C62" s="390"/>
       <c r="D62" s="245">
         <f>INPUT!D53</f>
         <v>0</v>
@@ -13687,11 +13687,11 @@
       <c r="A63" s="256">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>INPUT!C54</f>
         <v>0</v>
       </c>
-      <c r="C63" s="396"/>
+      <c r="C63" s="390"/>
       <c r="D63" s="245">
         <f>INPUT!D54</f>
         <v>0</v>
@@ -13726,11 +13726,11 @@
       <c r="A64" s="256">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>INPUT!C55</f>
         <v>0</v>
       </c>
-      <c r="C64" s="396"/>
+      <c r="C64" s="390"/>
       <c r="D64" s="245">
         <f>INPUT!D55</f>
         <v>0</v>
@@ -13765,11 +13765,11 @@
       <c r="A65" s="256">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>INPUT!C56</f>
         <v>0</v>
       </c>
-      <c r="C65" s="396"/>
+      <c r="C65" s="390"/>
       <c r="D65" s="245">
         <f>INPUT!D56</f>
         <v>0</v>
@@ -13804,11 +13804,11 @@
       <c r="A66" s="256">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>INPUT!C57</f>
         <v>0</v>
       </c>
-      <c r="C66" s="396"/>
+      <c r="C66" s="390"/>
       <c r="D66" s="245">
         <f>INPUT!D57</f>
         <v>0</v>
@@ -13843,11 +13843,11 @@
       <c r="A67" s="256">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>INPUT!C58</f>
         <v>0</v>
       </c>
-      <c r="C67" s="396"/>
+      <c r="C67" s="390"/>
       <c r="D67" s="245">
         <f>INPUT!D58</f>
         <v>0</v>
@@ -13882,11 +13882,11 @@
       <c r="A68" s="256">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>INPUT!C59</f>
         <v>0</v>
       </c>
-      <c r="C68" s="396"/>
+      <c r="C68" s="390"/>
       <c r="D68" s="245">
         <f>INPUT!D59</f>
         <v>0</v>
@@ -13921,11 +13921,11 @@
       <c r="A69" s="256">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>INPUT!C60</f>
         <v>0</v>
       </c>
-      <c r="C69" s="396"/>
+      <c r="C69" s="390"/>
       <c r="D69" s="245">
         <f>INPUT!D60</f>
         <v>0</v>
@@ -13960,11 +13960,11 @@
       <c r="A70" s="256">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>INPUT!C61</f>
         <v>0</v>
       </c>
-      <c r="C70" s="396"/>
+      <c r="C70" s="390"/>
       <c r="D70" s="245">
         <f>INPUT!D61</f>
         <v>0</v>
@@ -13999,11 +13999,11 @@
       <c r="A71" s="256">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>INPUT!C62</f>
         <v>0</v>
       </c>
-      <c r="C71" s="396"/>
+      <c r="C71" s="390"/>
       <c r="D71" s="245">
         <f>INPUT!D62</f>
         <v>0</v>
@@ -14038,11 +14038,11 @@
       <c r="A72" s="256">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>INPUT!C63</f>
         <v>0</v>
       </c>
-      <c r="C72" s="396"/>
+      <c r="C72" s="390"/>
       <c r="D72" s="245">
         <f>INPUT!D63</f>
         <v>0</v>
@@ -14077,11 +14077,11 @@
       <c r="A73" s="256">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>INPUT!C64</f>
         <v>0</v>
       </c>
-      <c r="C73" s="396"/>
+      <c r="C73" s="390"/>
       <c r="D73" s="245">
         <f>INPUT!D64</f>
         <v>0</v>
@@ -14116,11 +14116,11 @@
       <c r="A74" s="256">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>INPUT!C65</f>
         <v>0</v>
       </c>
-      <c r="C74" s="396"/>
+      <c r="C74" s="390"/>
       <c r="D74" s="245">
         <f>INPUT!D65</f>
         <v>0</v>
@@ -14155,11 +14155,11 @@
       <c r="A75" s="256">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>INPUT!C66</f>
         <v>0</v>
       </c>
-      <c r="C75" s="396"/>
+      <c r="C75" s="390"/>
       <c r="D75" s="245">
         <f>INPUT!D66</f>
         <v>0</v>
@@ -14194,11 +14194,11 @@
       <c r="A76" s="256">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>INPUT!C67</f>
         <v>0</v>
       </c>
-      <c r="C76" s="396"/>
+      <c r="C76" s="390"/>
       <c r="D76" s="245">
         <f>INPUT!D67</f>
         <v>0</v>
@@ -14233,11 +14233,11 @@
       <c r="A77" s="256">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>INPUT!C68</f>
         <v>0</v>
       </c>
-      <c r="C77" s="396"/>
+      <c r="C77" s="390"/>
       <c r="D77" s="245">
         <f>INPUT!D68</f>
         <v>0</v>
@@ -14272,11 +14272,11 @@
       <c r="A78" s="256">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>INPUT!C69</f>
         <v>0</v>
       </c>
-      <c r="C78" s="396"/>
+      <c r="C78" s="390"/>
       <c r="D78" s="245">
         <f>INPUT!D69</f>
         <v>0</v>
@@ -14311,11 +14311,11 @@
       <c r="A79" s="256">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>INPUT!C70</f>
         <v>0</v>
       </c>
-      <c r="C79" s="396"/>
+      <c r="C79" s="390"/>
       <c r="D79" s="245">
         <f>INPUT!D70</f>
         <v>0</v>
@@ -14350,11 +14350,11 @@
       <c r="A80" s="256">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>INPUT!C71</f>
         <v>0</v>
       </c>
-      <c r="C80" s="396"/>
+      <c r="C80" s="390"/>
       <c r="D80" s="245">
         <f>INPUT!D71</f>
         <v>0</v>
@@ -14389,11 +14389,11 @@
       <c r="A81" s="256">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>INPUT!C72</f>
         <v>0</v>
       </c>
-      <c r="C81" s="396"/>
+      <c r="C81" s="390"/>
       <c r="D81" s="245">
         <f>INPUT!D72</f>
         <v>0</v>
@@ -14428,11 +14428,11 @@
       <c r="A82" s="256">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>INPUT!C73</f>
         <v>0</v>
       </c>
-      <c r="C82" s="396"/>
+      <c r="C82" s="390"/>
       <c r="D82" s="245">
         <f>INPUT!D73</f>
         <v>0</v>
@@ -14467,11 +14467,11 @@
       <c r="A83" s="256">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>INPUT!C74</f>
         <v>0</v>
       </c>
-      <c r="C83" s="396"/>
+      <c r="C83" s="390"/>
       <c r="D83" s="245">
         <f>INPUT!D74</f>
         <v>0</v>
@@ -14506,11 +14506,11 @@
       <c r="A84" s="256">
         <v>72</v>
       </c>
-      <c r="B84" s="395">
+      <c r="B84" s="389">
         <f>INPUT!C75</f>
         <v>0</v>
       </c>
-      <c r="C84" s="396"/>
+      <c r="C84" s="390"/>
       <c r="D84" s="245">
         <f>INPUT!D75</f>
         <v>0</v>
@@ -14586,11 +14586,11 @@
       <c r="T86" s="145"/>
     </row>
     <row r="87" spans="1:20" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A87" s="391" t="s">
+      <c r="A87" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="392"/>
-      <c r="C87" s="393"/>
+      <c r="B87" s="402"/>
+      <c r="C87" s="403"/>
       <c r="D87" s="147">
         <f>SUM(D13:D85)</f>
         <v>0</v>
@@ -14912,47 +14912,33 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -14969,33 +14955,47 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.15748031496063" top="0.74803149606299202" bottom="0.39370078740157499" header="0.31496062992126" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -15109,53 +15109,53 @@
       <c r="L8" s="198"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A9" s="419" t="s">
+      <c r="A9" s="413" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="421" t="s">
+      <c r="B9" s="415" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="422"/>
-      <c r="D9" s="423"/>
-      <c r="E9" s="394" t="s">
+      <c r="C9" s="416"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="394" t="s">
+      <c r="F9" s="391" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="394" t="s">
+      <c r="G9" s="391" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="394" t="s">
+      <c r="H9" s="391" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="394" t="s">
+      <c r="I9" s="391" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="394" t="s">
+      <c r="J9" s="391" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="411" t="s">
+      <c r="K9" s="430" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="412"/>
+      <c r="L9" s="431"/>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A10" s="420"/>
-      <c r="B10" s="424"/>
-      <c r="C10" s="425"/>
-      <c r="D10" s="426"/>
-      <c r="E10" s="365"/>
-      <c r="F10" s="365"/>
-      <c r="G10" s="365"/>
-      <c r="H10" s="365"/>
-      <c r="I10" s="365"/>
-      <c r="J10" s="365"/>
-      <c r="K10" s="413"/>
-      <c r="L10" s="414"/>
+      <c r="A10" s="414"/>
+      <c r="B10" s="418"/>
+      <c r="C10" s="419"/>
+      <c r="D10" s="420"/>
+      <c r="E10" s="358"/>
+      <c r="F10" s="358"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="432"/>
+      <c r="L10" s="433"/>
       <c r="O10" s="7" t="s">
         <v>25</v>
       </c>
@@ -15164,11 +15164,11 @@
       <c r="A11" s="199">
         <v>1</v>
       </c>
-      <c r="B11" s="409">
+      <c r="B11" s="421">
         <v>2</v>
       </c>
-      <c r="C11" s="427"/>
-      <c r="D11" s="428"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="423"/>
       <c r="E11" s="200">
         <v>3</v>
       </c>
@@ -15185,35 +15185,35 @@
       <c r="J11" s="201">
         <v>7</v>
       </c>
-      <c r="K11" s="409">
+      <c r="K11" s="421">
         <v>8</v>
       </c>
-      <c r="L11" s="410"/>
+      <c r="L11" s="429"/>
     </row>
     <row r="12" spans="1:15" ht="13" customHeight="1" thickTop="1">
       <c r="A12" s="202"/>
-      <c r="B12" s="417"/>
-      <c r="C12" s="429"/>
-      <c r="D12" s="430"/>
+      <c r="B12" s="424"/>
+      <c r="C12" s="425"/>
+      <c r="D12" s="426"/>
       <c r="E12" s="203"/>
       <c r="F12" s="203"/>
       <c r="G12" s="204"/>
       <c r="H12" s="204"/>
       <c r="I12" s="204"/>
       <c r="J12" s="205"/>
-      <c r="K12" s="417"/>
-      <c r="L12" s="418"/>
+      <c r="K12" s="424"/>
+      <c r="L12" s="436"/>
     </row>
     <row r="13" spans="1:15" ht="30.75" customHeight="1">
       <c r="A13" s="259">
         <v>1</v>
       </c>
-      <c r="B13" s="395">
+      <c r="B13" s="389">
         <f>PBJ!B13</f>
         <v>0</v>
       </c>
       <c r="C13" s="406"/>
-      <c r="D13" s="396"/>
+      <c r="D13" s="390"/>
       <c r="E13" s="247">
         <f>PBJ!D13</f>
         <v>0</v>
@@ -15230,12 +15230,12 @@
       <c r="A14" s="259">
         <v>2</v>
       </c>
-      <c r="B14" s="395">
+      <c r="B14" s="389">
         <f>PBJ!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="406"/>
-      <c r="D14" s="396"/>
+      <c r="D14" s="390"/>
       <c r="E14" s="247">
         <f>PBJ!D14</f>
         <v>0</v>
@@ -15252,12 +15252,12 @@
       <c r="A15" s="259">
         <v>3</v>
       </c>
-      <c r="B15" s="395">
+      <c r="B15" s="389">
         <f>PBJ!B16</f>
         <v>0</v>
       </c>
       <c r="C15" s="406"/>
-      <c r="D15" s="396"/>
+      <c r="D15" s="390"/>
       <c r="E15" s="247">
         <f>PBJ!D16</f>
         <v>0</v>
@@ -15267,19 +15267,19 @@
       <c r="H15" s="251"/>
       <c r="I15" s="251"/>
       <c r="J15" s="258"/>
-      <c r="K15" s="415"/>
-      <c r="L15" s="416"/>
+      <c r="K15" s="434"/>
+      <c r="L15" s="435"/>
     </row>
     <row r="16" spans="1:15" ht="28.5" customHeight="1">
       <c r="A16" s="259">
         <v>4</v>
       </c>
-      <c r="B16" s="395">
+      <c r="B16" s="389">
         <f>PBJ!B17</f>
         <v>0</v>
       </c>
       <c r="C16" s="406"/>
-      <c r="D16" s="396"/>
+      <c r="D16" s="390"/>
       <c r="E16" s="247">
         <f>PBJ!D17</f>
         <v>0</v>
@@ -15289,19 +15289,19 @@
       <c r="H16" s="251"/>
       <c r="I16" s="251"/>
       <c r="J16" s="258"/>
-      <c r="K16" s="415"/>
-      <c r="L16" s="416"/>
+      <c r="K16" s="434"/>
+      <c r="L16" s="435"/>
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1">
       <c r="A17" s="259">
         <v>5</v>
       </c>
-      <c r="B17" s="395">
+      <c r="B17" s="389">
         <f>PBJ!B18</f>
         <v>0</v>
       </c>
       <c r="C17" s="406"/>
-      <c r="D17" s="396"/>
+      <c r="D17" s="390"/>
       <c r="E17" s="247">
         <f>PBJ!D18</f>
         <v>0</v>
@@ -15318,12 +15318,12 @@
       <c r="A18" s="259">
         <v>6</v>
       </c>
-      <c r="B18" s="395">
+      <c r="B18" s="389">
         <f>PBJ!B19</f>
         <v>0</v>
       </c>
       <c r="C18" s="406"/>
-      <c r="D18" s="396"/>
+      <c r="D18" s="390"/>
       <c r="E18" s="247">
         <f>PBJ!D19</f>
         <v>0</v>
@@ -15340,12 +15340,12 @@
       <c r="A19" s="259">
         <v>7</v>
       </c>
-      <c r="B19" s="395">
+      <c r="B19" s="389">
         <f>PBJ!B20</f>
         <v>0</v>
       </c>
       <c r="C19" s="406"/>
-      <c r="D19" s="396"/>
+      <c r="D19" s="390"/>
       <c r="E19" s="247">
         <f>PBJ!D20</f>
         <v>0</v>
@@ -15362,12 +15362,12 @@
       <c r="A20" s="259">
         <v>8</v>
       </c>
-      <c r="B20" s="395">
+      <c r="B20" s="389">
         <f>PBJ!B21</f>
         <v>0</v>
       </c>
       <c r="C20" s="406"/>
-      <c r="D20" s="396"/>
+      <c r="D20" s="390"/>
       <c r="E20" s="247">
         <f>PBJ!D21</f>
         <v>0</v>
@@ -15384,12 +15384,12 @@
       <c r="A21" s="259">
         <v>9</v>
       </c>
-      <c r="B21" s="395">
+      <c r="B21" s="389">
         <f>PBJ!B22</f>
         <v>0</v>
       </c>
       <c r="C21" s="406"/>
-      <c r="D21" s="396"/>
+      <c r="D21" s="390"/>
       <c r="E21" s="247">
         <f>PBJ!D22</f>
         <v>0</v>
@@ -15406,12 +15406,12 @@
       <c r="A22" s="259">
         <v>10</v>
       </c>
-      <c r="B22" s="395">
+      <c r="B22" s="389">
         <f>PBJ!B23</f>
         <v>0</v>
       </c>
       <c r="C22" s="406"/>
-      <c r="D22" s="396"/>
+      <c r="D22" s="390"/>
       <c r="E22" s="247">
         <f>PBJ!D23</f>
         <v>0</v>
@@ -15428,12 +15428,12 @@
       <c r="A23" s="259">
         <v>11</v>
       </c>
-      <c r="B23" s="395">
+      <c r="B23" s="389">
         <f>PBJ!B24</f>
         <v>0</v>
       </c>
       <c r="C23" s="406"/>
-      <c r="D23" s="396"/>
+      <c r="D23" s="390"/>
       <c r="E23" s="247">
         <f>PBJ!D24</f>
         <v>0</v>
@@ -15450,12 +15450,12 @@
       <c r="A24" s="259">
         <v>12</v>
       </c>
-      <c r="B24" s="395">
+      <c r="B24" s="389">
         <f>PBJ!B25</f>
         <v>0</v>
       </c>
       <c r="C24" s="406"/>
-      <c r="D24" s="396"/>
+      <c r="D24" s="390"/>
       <c r="E24" s="247">
         <f>PBJ!D25</f>
         <v>0</v>
@@ -15472,12 +15472,12 @@
       <c r="A25" s="259">
         <v>13</v>
       </c>
-      <c r="B25" s="395">
+      <c r="B25" s="389">
         <f>PBJ!B26</f>
         <v>0</v>
       </c>
       <c r="C25" s="406"/>
-      <c r="D25" s="396"/>
+      <c r="D25" s="390"/>
       <c r="E25" s="247">
         <f>PBJ!D26</f>
         <v>0</v>
@@ -15494,12 +15494,12 @@
       <c r="A26" s="259">
         <v>14</v>
       </c>
-      <c r="B26" s="395">
+      <c r="B26" s="389">
         <f>PBJ!B27</f>
         <v>0</v>
       </c>
       <c r="C26" s="406"/>
-      <c r="D26" s="396"/>
+      <c r="D26" s="390"/>
       <c r="E26" s="247">
         <f>PBJ!D27</f>
         <v>0</v>
@@ -15516,12 +15516,12 @@
       <c r="A27" s="259">
         <v>15</v>
       </c>
-      <c r="B27" s="395">
+      <c r="B27" s="389">
         <f>PBJ!B28</f>
         <v>0</v>
       </c>
       <c r="C27" s="406"/>
-      <c r="D27" s="396"/>
+      <c r="D27" s="390"/>
       <c r="E27" s="247">
         <f>PBJ!D28</f>
         <v>0</v>
@@ -15538,12 +15538,12 @@
       <c r="A28" s="259">
         <v>16</v>
       </c>
-      <c r="B28" s="395">
+      <c r="B28" s="389">
         <f>PBJ!B29</f>
         <v>0</v>
       </c>
       <c r="C28" s="406"/>
-      <c r="D28" s="396"/>
+      <c r="D28" s="390"/>
       <c r="E28" s="247">
         <f>PBJ!D29</f>
         <v>0</v>
@@ -15560,12 +15560,12 @@
       <c r="A29" s="259">
         <v>17</v>
       </c>
-      <c r="B29" s="395">
+      <c r="B29" s="389">
         <f>PBJ!B30</f>
         <v>0</v>
       </c>
       <c r="C29" s="406"/>
-      <c r="D29" s="396"/>
+      <c r="D29" s="390"/>
       <c r="E29" s="247">
         <f>PBJ!D30</f>
         <v>0</v>
@@ -15582,12 +15582,12 @@
       <c r="A30" s="259">
         <v>18</v>
       </c>
-      <c r="B30" s="395">
+      <c r="B30" s="389">
         <f>PBJ!B31</f>
         <v>0</v>
       </c>
       <c r="C30" s="406"/>
-      <c r="D30" s="396"/>
+      <c r="D30" s="390"/>
       <c r="E30" s="247">
         <f>PBJ!D31</f>
         <v>0</v>
@@ -15604,12 +15604,12 @@
       <c r="A31" s="259">
         <v>19</v>
       </c>
-      <c r="B31" s="395">
+      <c r="B31" s="389">
         <f>PBJ!B32</f>
         <v>0</v>
       </c>
       <c r="C31" s="406"/>
-      <c r="D31" s="396"/>
+      <c r="D31" s="390"/>
       <c r="E31" s="247">
         <f>PBJ!D32</f>
         <v>0</v>
@@ -15626,12 +15626,12 @@
       <c r="A32" s="259">
         <v>20</v>
       </c>
-      <c r="B32" s="395">
+      <c r="B32" s="389">
         <f>PBJ!B33</f>
         <v>0</v>
       </c>
       <c r="C32" s="406"/>
-      <c r="D32" s="396"/>
+      <c r="D32" s="390"/>
       <c r="E32" s="247">
         <f>PBJ!D33</f>
         <v>0</v>
@@ -15648,12 +15648,12 @@
       <c r="A33" s="259">
         <v>21</v>
       </c>
-      <c r="B33" s="395">
+      <c r="B33" s="389">
         <f>PBJ!B34</f>
         <v>0</v>
       </c>
       <c r="C33" s="406"/>
-      <c r="D33" s="396"/>
+      <c r="D33" s="390"/>
       <c r="E33" s="247">
         <f>PBJ!D34</f>
         <v>0</v>
@@ -15670,12 +15670,12 @@
       <c r="A34" s="259">
         <v>22</v>
       </c>
-      <c r="B34" s="395">
+      <c r="B34" s="389">
         <f>PBJ!B35</f>
         <v>0</v>
       </c>
       <c r="C34" s="406"/>
-      <c r="D34" s="396"/>
+      <c r="D34" s="390"/>
       <c r="E34" s="247">
         <f>PBJ!D35</f>
         <v>0</v>
@@ -15692,12 +15692,12 @@
       <c r="A35" s="259">
         <v>23</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="389">
         <f>PBJ!B36</f>
         <v>0</v>
       </c>
       <c r="C35" s="406"/>
-      <c r="D35" s="396"/>
+      <c r="D35" s="390"/>
       <c r="E35" s="247">
         <f>PBJ!D36</f>
         <v>0</v>
@@ -15714,12 +15714,12 @@
       <c r="A36" s="259">
         <v>24</v>
       </c>
-      <c r="B36" s="395">
+      <c r="B36" s="389">
         <f>PBJ!B37</f>
         <v>0</v>
       </c>
       <c r="C36" s="406"/>
-      <c r="D36" s="396"/>
+      <c r="D36" s="390"/>
       <c r="E36" s="247"/>
       <c r="F36" s="250"/>
       <c r="G36" s="251"/>
@@ -15733,12 +15733,12 @@
       <c r="A37" s="259">
         <v>25</v>
       </c>
-      <c r="B37" s="395">
+      <c r="B37" s="389">
         <f>PBJ!B38</f>
         <v>0</v>
       </c>
       <c r="C37" s="406"/>
-      <c r="D37" s="396"/>
+      <c r="D37" s="390"/>
       <c r="E37" s="247"/>
       <c r="F37" s="250"/>
       <c r="G37" s="251"/>
@@ -15752,12 +15752,12 @@
       <c r="A38" s="259">
         <v>26</v>
       </c>
-      <c r="B38" s="395">
+      <c r="B38" s="389">
         <f>PBJ!B39</f>
         <v>0</v>
       </c>
       <c r="C38" s="406"/>
-      <c r="D38" s="396"/>
+      <c r="D38" s="390"/>
       <c r="E38" s="247"/>
       <c r="F38" s="250"/>
       <c r="G38" s="251"/>
@@ -15771,12 +15771,12 @@
       <c r="A39" s="259">
         <v>27</v>
       </c>
-      <c r="B39" s="395">
+      <c r="B39" s="389">
         <f>PBJ!B40</f>
         <v>0</v>
       </c>
       <c r="C39" s="406"/>
-      <c r="D39" s="396"/>
+      <c r="D39" s="390"/>
       <c r="E39" s="247"/>
       <c r="F39" s="250"/>
       <c r="G39" s="251"/>
@@ -15790,12 +15790,12 @@
       <c r="A40" s="259">
         <v>28</v>
       </c>
-      <c r="B40" s="395">
+      <c r="B40" s="389">
         <f>PBJ!B41</f>
         <v>0</v>
       </c>
       <c r="C40" s="406"/>
-      <c r="D40" s="396"/>
+      <c r="D40" s="390"/>
       <c r="E40" s="247"/>
       <c r="F40" s="250"/>
       <c r="G40" s="251"/>
@@ -15809,12 +15809,12 @@
       <c r="A41" s="259">
         <v>29</v>
       </c>
-      <c r="B41" s="395">
+      <c r="B41" s="389">
         <f>PBJ!B42</f>
         <v>0</v>
       </c>
       <c r="C41" s="406"/>
-      <c r="D41" s="396"/>
+      <c r="D41" s="390"/>
       <c r="E41" s="247"/>
       <c r="F41" s="250"/>
       <c r="G41" s="251"/>
@@ -15828,12 +15828,12 @@
       <c r="A42" s="259">
         <v>30</v>
       </c>
-      <c r="B42" s="395">
+      <c r="B42" s="389">
         <f>PBJ!B43</f>
         <v>0</v>
       </c>
       <c r="C42" s="406"/>
-      <c r="D42" s="396"/>
+      <c r="D42" s="390"/>
       <c r="E42" s="247"/>
       <c r="F42" s="250"/>
       <c r="G42" s="251"/>
@@ -15847,12 +15847,12 @@
       <c r="A43" s="259">
         <v>31</v>
       </c>
-      <c r="B43" s="395">
+      <c r="B43" s="389">
         <f>PBJ!B44</f>
         <v>0</v>
       </c>
       <c r="C43" s="406"/>
-      <c r="D43" s="396"/>
+      <c r="D43" s="390"/>
       <c r="E43" s="247"/>
       <c r="F43" s="250"/>
       <c r="G43" s="251"/>
@@ -15866,12 +15866,12 @@
       <c r="A44" s="259">
         <v>32</v>
       </c>
-      <c r="B44" s="395">
+      <c r="B44" s="389">
         <f>PBJ!B45</f>
         <v>0</v>
       </c>
       <c r="C44" s="406"/>
-      <c r="D44" s="396"/>
+      <c r="D44" s="390"/>
       <c r="E44" s="247"/>
       <c r="F44" s="250"/>
       <c r="G44" s="251"/>
@@ -15885,12 +15885,12 @@
       <c r="A45" s="259">
         <v>33</v>
       </c>
-      <c r="B45" s="395">
+      <c r="B45" s="389">
         <f>PBJ!B46</f>
         <v>0</v>
       </c>
       <c r="C45" s="406"/>
-      <c r="D45" s="396"/>
+      <c r="D45" s="390"/>
       <c r="E45" s="247"/>
       <c r="F45" s="250"/>
       <c r="G45" s="251"/>
@@ -15904,12 +15904,12 @@
       <c r="A46" s="259">
         <v>34</v>
       </c>
-      <c r="B46" s="395">
+      <c r="B46" s="389">
         <f>PBJ!B47</f>
         <v>0</v>
       </c>
       <c r="C46" s="406"/>
-      <c r="D46" s="396"/>
+      <c r="D46" s="390"/>
       <c r="E46" s="247"/>
       <c r="F46" s="250"/>
       <c r="G46" s="251"/>
@@ -15923,12 +15923,12 @@
       <c r="A47" s="259">
         <v>35</v>
       </c>
-      <c r="B47" s="395">
+      <c r="B47" s="389">
         <f>PBJ!B48</f>
         <v>0</v>
       </c>
       <c r="C47" s="406"/>
-      <c r="D47" s="396"/>
+      <c r="D47" s="390"/>
       <c r="E47" s="247"/>
       <c r="F47" s="250"/>
       <c r="G47" s="251"/>
@@ -15942,12 +15942,12 @@
       <c r="A48" s="259">
         <v>36</v>
       </c>
-      <c r="B48" s="395">
+      <c r="B48" s="389">
         <f>PBJ!B49</f>
         <v>0</v>
       </c>
       <c r="C48" s="406"/>
-      <c r="D48" s="396"/>
+      <c r="D48" s="390"/>
       <c r="E48" s="247"/>
       <c r="F48" s="250"/>
       <c r="G48" s="251"/>
@@ -15961,12 +15961,12 @@
       <c r="A49" s="259">
         <v>37</v>
       </c>
-      <c r="B49" s="395">
+      <c r="B49" s="389">
         <f>PBJ!B50</f>
         <v>0</v>
       </c>
       <c r="C49" s="406"/>
-      <c r="D49" s="396"/>
+      <c r="D49" s="390"/>
       <c r="E49" s="247"/>
       <c r="F49" s="250"/>
       <c r="G49" s="251"/>
@@ -15980,12 +15980,12 @@
       <c r="A50" s="259">
         <v>38</v>
       </c>
-      <c r="B50" s="395">
+      <c r="B50" s="389">
         <f>PBJ!B51</f>
         <v>0</v>
       </c>
       <c r="C50" s="406"/>
-      <c r="D50" s="396"/>
+      <c r="D50" s="390"/>
       <c r="E50" s="247"/>
       <c r="F50" s="250"/>
       <c r="G50" s="251"/>
@@ -15999,12 +15999,12 @@
       <c r="A51" s="259">
         <v>39</v>
       </c>
-      <c r="B51" s="395">
+      <c r="B51" s="389">
         <f>PBJ!B52</f>
         <v>0</v>
       </c>
       <c r="C51" s="406"/>
-      <c r="D51" s="396"/>
+      <c r="D51" s="390"/>
       <c r="E51" s="247"/>
       <c r="F51" s="250"/>
       <c r="G51" s="251"/>
@@ -16018,12 +16018,12 @@
       <c r="A52" s="259">
         <v>40</v>
       </c>
-      <c r="B52" s="395">
+      <c r="B52" s="389">
         <f>PBJ!B53</f>
         <v>0</v>
       </c>
       <c r="C52" s="406"/>
-      <c r="D52" s="396"/>
+      <c r="D52" s="390"/>
       <c r="E52" s="247"/>
       <c r="F52" s="250"/>
       <c r="G52" s="251"/>
@@ -16037,12 +16037,12 @@
       <c r="A53" s="259">
         <v>41</v>
       </c>
-      <c r="B53" s="395">
+      <c r="B53" s="389">
         <f>PBJ!B54</f>
         <v>0</v>
       </c>
       <c r="C53" s="406"/>
-      <c r="D53" s="396"/>
+      <c r="D53" s="390"/>
       <c r="E53" s="247"/>
       <c r="F53" s="250"/>
       <c r="G53" s="251"/>
@@ -16056,12 +16056,12 @@
       <c r="A54" s="259">
         <v>42</v>
       </c>
-      <c r="B54" s="395">
+      <c r="B54" s="389">
         <f>PBJ!B55</f>
         <v>0</v>
       </c>
       <c r="C54" s="406"/>
-      <c r="D54" s="396"/>
+      <c r="D54" s="390"/>
       <c r="E54" s="247"/>
       <c r="F54" s="250"/>
       <c r="G54" s="251"/>
@@ -16075,12 +16075,12 @@
       <c r="A55" s="259">
         <v>43</v>
       </c>
-      <c r="B55" s="395">
+      <c r="B55" s="389">
         <f>PBJ!B56</f>
         <v>0</v>
       </c>
       <c r="C55" s="406"/>
-      <c r="D55" s="396"/>
+      <c r="D55" s="390"/>
       <c r="E55" s="247"/>
       <c r="F55" s="250"/>
       <c r="G55" s="251"/>
@@ -16094,12 +16094,12 @@
       <c r="A56" s="259">
         <v>44</v>
       </c>
-      <c r="B56" s="395">
+      <c r="B56" s="389">
         <f>PBJ!B57</f>
         <v>0</v>
       </c>
       <c r="C56" s="406"/>
-      <c r="D56" s="396"/>
+      <c r="D56" s="390"/>
       <c r="E56" s="247"/>
       <c r="F56" s="250"/>
       <c r="G56" s="251"/>
@@ -16113,12 +16113,12 @@
       <c r="A57" s="259">
         <v>45</v>
       </c>
-      <c r="B57" s="395">
+      <c r="B57" s="389">
         <f>PBJ!B58</f>
         <v>0</v>
       </c>
       <c r="C57" s="406"/>
-      <c r="D57" s="396"/>
+      <c r="D57" s="390"/>
       <c r="E57" s="247"/>
       <c r="F57" s="250"/>
       <c r="G57" s="251"/>
@@ -16132,12 +16132,12 @@
       <c r="A58" s="259">
         <v>46</v>
       </c>
-      <c r="B58" s="395">
+      <c r="B58" s="389">
         <f>PBJ!B59</f>
         <v>0</v>
       </c>
       <c r="C58" s="406"/>
-      <c r="D58" s="396"/>
+      <c r="D58" s="390"/>
       <c r="E58" s="247"/>
       <c r="F58" s="250"/>
       <c r="G58" s="251"/>
@@ -16151,12 +16151,12 @@
       <c r="A59" s="259">
         <v>47</v>
       </c>
-      <c r="B59" s="395">
+      <c r="B59" s="389">
         <f>PBJ!B60</f>
         <v>0</v>
       </c>
       <c r="C59" s="406"/>
-      <c r="D59" s="396"/>
+      <c r="D59" s="390"/>
       <c r="E59" s="247"/>
       <c r="F59" s="250"/>
       <c r="G59" s="251"/>
@@ -16170,12 +16170,12 @@
       <c r="A60" s="259">
         <v>48</v>
       </c>
-      <c r="B60" s="395">
+      <c r="B60" s="389">
         <f>PBJ!B61</f>
         <v>0</v>
       </c>
       <c r="C60" s="406"/>
-      <c r="D60" s="396"/>
+      <c r="D60" s="390"/>
       <c r="E60" s="247"/>
       <c r="F60" s="250"/>
       <c r="G60" s="251"/>
@@ -16189,12 +16189,12 @@
       <c r="A61" s="259">
         <v>49</v>
       </c>
-      <c r="B61" s="395">
+      <c r="B61" s="389">
         <f>PBJ!B62</f>
         <v>0</v>
       </c>
       <c r="C61" s="406"/>
-      <c r="D61" s="396"/>
+      <c r="D61" s="390"/>
       <c r="E61" s="247"/>
       <c r="F61" s="250"/>
       <c r="G61" s="251"/>
@@ -16208,12 +16208,12 @@
       <c r="A62" s="259">
         <v>50</v>
       </c>
-      <c r="B62" s="395">
+      <c r="B62" s="389">
         <f>PBJ!B63</f>
         <v>0</v>
       </c>
       <c r="C62" s="406"/>
-      <c r="D62" s="396"/>
+      <c r="D62" s="390"/>
       <c r="E62" s="247"/>
       <c r="F62" s="250"/>
       <c r="G62" s="251"/>
@@ -16227,12 +16227,12 @@
       <c r="A63" s="259">
         <v>51</v>
       </c>
-      <c r="B63" s="395">
+      <c r="B63" s="389">
         <f>PBJ!B64</f>
         <v>0</v>
       </c>
       <c r="C63" s="406"/>
-      <c r="D63" s="396"/>
+      <c r="D63" s="390"/>
       <c r="E63" s="247"/>
       <c r="F63" s="250"/>
       <c r="G63" s="251"/>
@@ -16246,12 +16246,12 @@
       <c r="A64" s="259">
         <v>52</v>
       </c>
-      <c r="B64" s="395">
+      <c r="B64" s="389">
         <f>PBJ!B65</f>
         <v>0</v>
       </c>
       <c r="C64" s="406"/>
-      <c r="D64" s="396"/>
+      <c r="D64" s="390"/>
       <c r="E64" s="247"/>
       <c r="F64" s="250"/>
       <c r="G64" s="251"/>
@@ -16265,12 +16265,12 @@
       <c r="A65" s="259">
         <v>53</v>
       </c>
-      <c r="B65" s="395">
+      <c r="B65" s="389">
         <f>PBJ!B66</f>
         <v>0</v>
       </c>
       <c r="C65" s="406"/>
-      <c r="D65" s="396"/>
+      <c r="D65" s="390"/>
       <c r="E65" s="247"/>
       <c r="F65" s="250"/>
       <c r="G65" s="251"/>
@@ -16284,12 +16284,12 @@
       <c r="A66" s="259">
         <v>54</v>
       </c>
-      <c r="B66" s="395">
+      <c r="B66" s="389">
         <f>PBJ!B67</f>
         <v>0</v>
       </c>
       <c r="C66" s="406"/>
-      <c r="D66" s="396"/>
+      <c r="D66" s="390"/>
       <c r="E66" s="247"/>
       <c r="F66" s="250"/>
       <c r="G66" s="251"/>
@@ -16303,12 +16303,12 @@
       <c r="A67" s="259">
         <v>55</v>
       </c>
-      <c r="B67" s="395">
+      <c r="B67" s="389">
         <f>PBJ!B68</f>
         <v>0</v>
       </c>
       <c r="C67" s="406"/>
-      <c r="D67" s="396"/>
+      <c r="D67" s="390"/>
       <c r="E67" s="247"/>
       <c r="F67" s="250"/>
       <c r="G67" s="251"/>
@@ -16322,12 +16322,12 @@
       <c r="A68" s="259">
         <v>56</v>
       </c>
-      <c r="B68" s="395">
+      <c r="B68" s="389">
         <f>PBJ!B69</f>
         <v>0</v>
       </c>
       <c r="C68" s="406"/>
-      <c r="D68" s="396"/>
+      <c r="D68" s="390"/>
       <c r="E68" s="247"/>
       <c r="F68" s="250"/>
       <c r="G68" s="251"/>
@@ -16341,12 +16341,12 @@
       <c r="A69" s="259">
         <v>57</v>
       </c>
-      <c r="B69" s="395">
+      <c r="B69" s="389">
         <f>PBJ!B70</f>
         <v>0</v>
       </c>
       <c r="C69" s="406"/>
-      <c r="D69" s="396"/>
+      <c r="D69" s="390"/>
       <c r="E69" s="247"/>
       <c r="F69" s="250"/>
       <c r="G69" s="251"/>
@@ -16360,12 +16360,12 @@
       <c r="A70" s="259">
         <v>58</v>
       </c>
-      <c r="B70" s="395">
+      <c r="B70" s="389">
         <f>PBJ!B71</f>
         <v>0</v>
       </c>
       <c r="C70" s="406"/>
-      <c r="D70" s="396"/>
+      <c r="D70" s="390"/>
       <c r="E70" s="247"/>
       <c r="F70" s="250"/>
       <c r="G70" s="251"/>
@@ -16379,12 +16379,12 @@
       <c r="A71" s="259">
         <v>59</v>
       </c>
-      <c r="B71" s="395">
+      <c r="B71" s="389">
         <f>PBJ!B72</f>
         <v>0</v>
       </c>
       <c r="C71" s="406"/>
-      <c r="D71" s="396"/>
+      <c r="D71" s="390"/>
       <c r="E71" s="247"/>
       <c r="F71" s="250"/>
       <c r="G71" s="251"/>
@@ -16398,12 +16398,12 @@
       <c r="A72" s="259">
         <v>60</v>
       </c>
-      <c r="B72" s="395">
+      <c r="B72" s="389">
         <f>PBJ!B73</f>
         <v>0</v>
       </c>
       <c r="C72" s="406"/>
-      <c r="D72" s="396"/>
+      <c r="D72" s="390"/>
       <c r="E72" s="247"/>
       <c r="F72" s="250"/>
       <c r="G72" s="251"/>
@@ -16417,12 +16417,12 @@
       <c r="A73" s="259">
         <v>61</v>
       </c>
-      <c r="B73" s="395">
+      <c r="B73" s="389">
         <f>PBJ!B74</f>
         <v>0</v>
       </c>
       <c r="C73" s="406"/>
-      <c r="D73" s="396"/>
+      <c r="D73" s="390"/>
       <c r="E73" s="247"/>
       <c r="F73" s="250"/>
       <c r="G73" s="251"/>
@@ -16436,12 +16436,12 @@
       <c r="A74" s="259">
         <v>62</v>
       </c>
-      <c r="B74" s="395">
+      <c r="B74" s="389">
         <f>PBJ!B75</f>
         <v>0</v>
       </c>
       <c r="C74" s="406"/>
-      <c r="D74" s="396"/>
+      <c r="D74" s="390"/>
       <c r="E74" s="247"/>
       <c r="F74" s="250"/>
       <c r="G74" s="251"/>
@@ -16455,12 +16455,12 @@
       <c r="A75" s="259">
         <v>63</v>
       </c>
-      <c r="B75" s="395">
+      <c r="B75" s="389">
         <f>PBJ!B76</f>
         <v>0</v>
       </c>
       <c r="C75" s="406"/>
-      <c r="D75" s="396"/>
+      <c r="D75" s="390"/>
       <c r="E75" s="247"/>
       <c r="F75" s="250"/>
       <c r="G75" s="251"/>
@@ -16474,12 +16474,12 @@
       <c r="A76" s="259">
         <v>64</v>
       </c>
-      <c r="B76" s="395">
+      <c r="B76" s="389">
         <f>PBJ!B77</f>
         <v>0</v>
       </c>
       <c r="C76" s="406"/>
-      <c r="D76" s="396"/>
+      <c r="D76" s="390"/>
       <c r="E76" s="247"/>
       <c r="F76" s="250"/>
       <c r="G76" s="251"/>
@@ -16493,12 +16493,12 @@
       <c r="A77" s="259">
         <v>65</v>
       </c>
-      <c r="B77" s="395">
+      <c r="B77" s="389">
         <f>PBJ!B78</f>
         <v>0</v>
       </c>
       <c r="C77" s="406"/>
-      <c r="D77" s="396"/>
+      <c r="D77" s="390"/>
       <c r="E77" s="247"/>
       <c r="F77" s="250"/>
       <c r="G77" s="251"/>
@@ -16512,12 +16512,12 @@
       <c r="A78" s="259">
         <v>66</v>
       </c>
-      <c r="B78" s="395">
+      <c r="B78" s="389">
         <f>PBJ!B79</f>
         <v>0</v>
       </c>
       <c r="C78" s="406"/>
-      <c r="D78" s="396"/>
+      <c r="D78" s="390"/>
       <c r="E78" s="247"/>
       <c r="F78" s="250"/>
       <c r="G78" s="251"/>
@@ -16531,12 +16531,12 @@
       <c r="A79" s="259">
         <v>67</v>
       </c>
-      <c r="B79" s="395">
+      <c r="B79" s="389">
         <f>PBJ!B80</f>
         <v>0</v>
       </c>
       <c r="C79" s="406"/>
-      <c r="D79" s="396"/>
+      <c r="D79" s="390"/>
       <c r="E79" s="247"/>
       <c r="F79" s="250"/>
       <c r="G79" s="251"/>
@@ -16550,12 +16550,12 @@
       <c r="A80" s="259">
         <v>68</v>
       </c>
-      <c r="B80" s="395">
+      <c r="B80" s="389">
         <f>PBJ!B81</f>
         <v>0</v>
       </c>
       <c r="C80" s="406"/>
-      <c r="D80" s="396"/>
+      <c r="D80" s="390"/>
       <c r="E80" s="247"/>
       <c r="F80" s="250"/>
       <c r="G80" s="251"/>
@@ -16569,12 +16569,12 @@
       <c r="A81" s="259">
         <v>69</v>
       </c>
-      <c r="B81" s="395">
+      <c r="B81" s="389">
         <f>PBJ!B82</f>
         <v>0</v>
       </c>
       <c r="C81" s="406"/>
-      <c r="D81" s="396"/>
+      <c r="D81" s="390"/>
       <c r="E81" s="247"/>
       <c r="F81" s="250"/>
       <c r="G81" s="251"/>
@@ -16588,12 +16588,12 @@
       <c r="A82" s="259">
         <v>70</v>
       </c>
-      <c r="B82" s="395">
+      <c r="B82" s="389">
         <f>PBJ!B83</f>
         <v>0</v>
       </c>
       <c r="C82" s="406"/>
-      <c r="D82" s="396"/>
+      <c r="D82" s="390"/>
       <c r="E82" s="247"/>
       <c r="F82" s="250"/>
       <c r="G82" s="251"/>
@@ -16607,12 +16607,12 @@
       <c r="A83" s="259">
         <v>71</v>
       </c>
-      <c r="B83" s="395">
+      <c r="B83" s="389">
         <f>PBJ!B84</f>
         <v>0</v>
       </c>
       <c r="C83" s="406"/>
-      <c r="D83" s="396"/>
+      <c r="D83" s="390"/>
       <c r="E83" s="247"/>
       <c r="F83" s="250"/>
       <c r="G83" s="251"/>
@@ -16624,9 +16624,9 @@
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1">
       <c r="A84" s="259"/>
-      <c r="B84" s="395"/>
+      <c r="B84" s="389"/>
       <c r="C84" s="406"/>
-      <c r="D84" s="396"/>
+      <c r="D84" s="390"/>
       <c r="E84" s="247"/>
       <c r="F84" s="250"/>
       <c r="G84" s="251"/>
@@ -16638,26 +16638,26 @@
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1" thickBot="1">
       <c r="A85" s="206"/>
-      <c r="B85" s="431"/>
-      <c r="C85" s="432"/>
-      <c r="D85" s="433"/>
+      <c r="B85" s="410"/>
+      <c r="C85" s="411"/>
+      <c r="D85" s="412"/>
       <c r="E85" s="207"/>
       <c r="F85" s="207"/>
       <c r="G85" s="208"/>
       <c r="H85" s="208"/>
       <c r="I85" s="208"/>
       <c r="J85" s="209"/>
-      <c r="K85" s="407"/>
-      <c r="L85" s="408"/>
+      <c r="K85" s="427"/>
+      <c r="L85" s="428"/>
     </row>
     <row r="86" spans="1:12" ht="20" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A86" s="434" t="str">
+      <c r="A86" s="407" t="str">
         <f>RFK!A86</f>
         <v>Jumlah</v>
       </c>
-      <c r="B86" s="435"/>
-      <c r="C86" s="435"/>
-      <c r="D86" s="436"/>
+      <c r="B86" s="408"/>
+      <c r="C86" s="408"/>
+      <c r="D86" s="409"/>
       <c r="E86" s="210">
         <f>SUM(E12:E84)</f>
         <v>0</v>
@@ -16854,38 +16854,48 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
     <mergeCell ref="A86:D86"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B32:D32"/>
@@ -16902,48 +16912,38 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.23622047244094499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17060,138 +17060,138 @@
       <c r="A9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="445" t="s">
+      <c r="B9" s="437" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="446"/>
+      <c r="C9" s="438"/>
       <c r="D9" s="104" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="445" t="s">
+      <c r="F9" s="437" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="447"/>
+      <c r="G9" s="439"/>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="105">
         <v>1</v>
       </c>
-      <c r="B10" s="448">
+      <c r="B10" s="440">
         <v>2</v>
       </c>
-      <c r="C10" s="449"/>
+      <c r="C10" s="441"/>
       <c r="D10" s="106">
         <v>3</v>
       </c>
       <c r="E10" s="106">
         <v>4</v>
       </c>
-      <c r="F10" s="448">
+      <c r="F10" s="440">
         <v>5</v>
       </c>
-      <c r="G10" s="450"/>
+      <c r="G10" s="446"/>
     </row>
     <row r="11" spans="1:8" ht="13" customHeight="1" thickTop="1">
       <c r="A11" s="107"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="452"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="453"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="449"/>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="110"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="442"/>
+      <c r="B12" s="444"/>
+      <c r="C12" s="445"/>
       <c r="D12" s="111"/>
       <c r="E12" s="112"/>
-      <c r="F12" s="439"/>
-      <c r="G12" s="440"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="443"/>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="13" customHeight="1">
       <c r="A13" s="110"/>
-      <c r="B13" s="441"/>
-      <c r="C13" s="442"/>
+      <c r="B13" s="444"/>
+      <c r="C13" s="445"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
-      <c r="F13" s="439"/>
-      <c r="G13" s="440"/>
+      <c r="F13" s="442"/>
+      <c r="G13" s="443"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="13" customHeight="1">
       <c r="A14" s="113"/>
-      <c r="B14" s="441"/>
-      <c r="C14" s="442"/>
+      <c r="B14" s="444"/>
+      <c r="C14" s="445"/>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="439"/>
-      <c r="G14" s="440"/>
+      <c r="F14" s="442"/>
+      <c r="G14" s="443"/>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="13" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="441"/>
-      <c r="C15" s="442"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="445"/>
       <c r="D15" s="111"/>
       <c r="E15" s="115"/>
-      <c r="F15" s="439"/>
-      <c r="G15" s="440"/>
+      <c r="F15" s="442"/>
+      <c r="G15" s="443"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="13" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="441"/>
-      <c r="C16" s="442"/>
+      <c r="B16" s="444"/>
+      <c r="C16" s="445"/>
       <c r="D16" s="116"/>
       <c r="E16" s="117"/>
-      <c r="F16" s="439"/>
-      <c r="G16" s="440"/>
+      <c r="F16" s="442"/>
+      <c r="G16" s="443"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1">
       <c r="A17" s="110"/>
-      <c r="B17" s="441"/>
-      <c r="C17" s="442"/>
+      <c r="B17" s="444"/>
+      <c r="C17" s="445"/>
       <c r="D17" s="192"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="439"/>
-      <c r="G17" s="440"/>
+      <c r="F17" s="442"/>
+      <c r="G17" s="443"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="13" customHeight="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="441"/>
-      <c r="C18" s="442"/>
+      <c r="B18" s="444"/>
+      <c r="C18" s="445"/>
       <c r="D18" s="192"/>
       <c r="E18" s="117"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="440"/>
+      <c r="F18" s="442"/>
+      <c r="G18" s="443"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="13" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="441"/>
-      <c r="C19" s="442"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="445"/>
       <c r="D19" s="192"/>
       <c r="E19" s="117"/>
-      <c r="F19" s="439"/>
-      <c r="G19" s="440"/>
+      <c r="F19" s="442"/>
+      <c r="G19" s="443"/>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1">
       <c r="A20" s="119"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="438"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="451"/>
       <c r="D20" s="120"/>
       <c r="E20" s="121"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="F20" s="452"/>
+      <c r="G20" s="453"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="13" customHeight="1" thickTop="1">
@@ -17284,6 +17284,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
@@ -17299,15 +17308,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.35433070866141703" top="0.62992125984252001" bottom="0.39370078740157499" header="0.35433070866141703" footer="0.27559055118110198"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17387,10 +17387,10 @@
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="399" t="s">
+      <c r="T2" s="394" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="400"/>
+      <c r="U2" s="395"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" s="33" customFormat="1" ht="13" customHeight="1">
@@ -17529,42 +17529,42 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="35"/>
-      <c r="T7" s="464" t="s">
+      <c r="T7" s="456" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="464"/>
+      <c r="U7" s="456"/>
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="465"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="465"/>
-      <c r="E8" s="465"/>
-      <c r="F8" s="465"/>
-      <c r="G8" s="465"/>
-      <c r="H8" s="465"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="465"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="465"/>
+      <c r="A8" s="457"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="457"/>
+      <c r="D8" s="457"/>
+      <c r="E8" s="457"/>
+      <c r="F8" s="457"/>
+      <c r="G8" s="457"/>
+      <c r="H8" s="457"/>
+      <c r="I8" s="457"/>
+      <c r="J8" s="457"/>
+      <c r="K8" s="457"/>
+      <c r="L8" s="457"/>
     </row>
     <row r="9" spans="1:22" ht="14" thickBot="1"/>
     <row r="10" spans="1:22" ht="30" customHeight="1" thickTop="1">
       <c r="A10" s="222" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="466" t="s">
+      <c r="B10" s="458" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="467"/>
+      <c r="C10" s="459"/>
       <c r="D10" s="222" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="466" t="s">
+      <c r="E10" s="458" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="467"/>
+      <c r="F10" s="459"/>
       <c r="G10" s="222" t="s">
         <v>141</v>
       </c>
@@ -17589,17 +17589,17 @@
       <c r="A11" s="224">
         <v>1</v>
       </c>
-      <c r="B11" s="462">
+      <c r="B11" s="454">
         <v>2</v>
       </c>
-      <c r="C11" s="463"/>
+      <c r="C11" s="455"/>
       <c r="D11" s="224">
         <v>3</v>
       </c>
-      <c r="E11" s="462">
+      <c r="E11" s="454">
         <v>4</v>
       </c>
-      <c r="F11" s="463"/>
+      <c r="F11" s="455"/>
       <c r="G11" s="224">
         <v>5</v>
       </c>
@@ -17625,8 +17625,8 @@
       <c r="B12" s="228"/>
       <c r="C12" s="229"/>
       <c r="D12" s="227"/>
-      <c r="E12" s="454"/>
-      <c r="F12" s="455"/>
+      <c r="E12" s="460"/>
+      <c r="F12" s="461"/>
       <c r="G12" s="227"/>
       <c r="H12" s="227"/>
       <c r="I12" s="227"/>
@@ -17639,8 +17639,8 @@
       <c r="B13" s="214"/>
       <c r="C13" s="248"/>
       <c r="D13" s="231"/>
-      <c r="E13" s="456"/>
-      <c r="F13" s="457"/>
+      <c r="E13" s="462"/>
+      <c r="F13" s="463"/>
       <c r="G13" s="232"/>
       <c r="H13" s="230"/>
       <c r="I13" s="231"/>
@@ -17681,8 +17681,8 @@
       <c r="B16" s="234"/>
       <c r="C16" s="235"/>
       <c r="D16" s="233"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="460"/>
+      <c r="E16" s="465"/>
+      <c r="F16" s="466"/>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
       <c r="I16" s="233"/>
@@ -17714,9 +17714,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="461"/>
-      <c r="K18" s="461"/>
-      <c r="L18" s="461"/>
+      <c r="J18" s="467"/>
+      <c r="K18" s="467"/>
+      <c r="L18" s="467"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8"/>
@@ -17730,12 +17730,12 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="458" t="str">
+      <c r="J19" s="464" t="str">
         <f>RFK!N88</f>
         <v>Banjarmasin, 28 Februari</v>
       </c>
-      <c r="K19" s="458"/>
-      <c r="L19" s="458"/>
+      <c r="K19" s="464"/>
+      <c r="L19" s="464"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8"/>
@@ -17791,9 +17791,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="458"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
+      <c r="J23" s="464"/>
+      <c r="K23" s="464"/>
+      <c r="L23" s="464"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8"/>
@@ -17807,12 +17807,12 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="458" t="str">
+      <c r="J24" s="464" t="str">
         <f>RFK!N94</f>
         <v>Ibnul Qayyim Islamy, ST</v>
       </c>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
+      <c r="K24" s="464"/>
+      <c r="L24" s="464"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8"/>
@@ -17826,12 +17826,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="458" t="str">
+      <c r="J25" s="464" t="str">
         <f>[1]INPUT!H9</f>
         <v>NIP. 19750809 200604 1 020</v>
       </c>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
+      <c r="K25" s="464"/>
+      <c r="L25" s="464"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8"/>
@@ -18077,13 +18077,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="J25:L25"/>
@@ -18092,6 +18085,13 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.63" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -18283,7 +18283,7 @@
   </sheetPr>
   <dimension ref="A1:X504"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A415" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A415" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="X452" sqref="X452"/>
     </sheetView>
   </sheetViews>
@@ -18313,32 +18313,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="482" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="473"/>
-      <c r="C1" s="473"/>
-      <c r="D1" s="473"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="473"/>
-      <c r="G1" s="473"/>
-      <c r="H1" s="473"/>
-      <c r="I1" s="473"/>
-      <c r="J1" s="473"/>
-      <c r="K1" s="473"/>
-      <c r="L1" s="473"/>
-      <c r="M1" s="473"/>
-      <c r="N1" s="473"/>
-      <c r="O1" s="473"/>
-      <c r="P1" s="473"/>
-      <c r="Q1" s="473"/>
-      <c r="R1" s="473"/>
-      <c r="S1" s="473"/>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
+      <c r="K1" s="482"/>
+      <c r="L1" s="482"/>
+      <c r="M1" s="482"/>
+      <c r="N1" s="482"/>
+      <c r="O1" s="482"/>
+      <c r="P1" s="482"/>
+      <c r="Q1" s="482"/>
+      <c r="R1" s="482"/>
+      <c r="S1" s="482"/>
+      <c r="T1" s="482"/>
+      <c r="U1" s="482"/>
+      <c r="V1" s="482"/>
       <c r="W1" s="76"/>
-      <c r="X1" s="478" t="s">
+      <c r="X1" s="471" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18366,7 +18366,7 @@
       <c r="U2" s="78"/>
       <c r="V2" s="78"/>
       <c r="W2" s="76"/>
-      <c r="X2" s="478"/>
+      <c r="X2" s="471"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
@@ -18395,7 +18395,7 @@
       <c r="U3" s="78"/>
       <c r="V3" s="78"/>
       <c r="W3" s="76"/>
-      <c r="X3" s="478"/>
+      <c r="X3" s="471"/>
     </row>
     <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -18424,7 +18424,7 @@
       <c r="U4" s="78"/>
       <c r="V4" s="78"/>
       <c r="W4" s="76"/>
-      <c r="X4" s="478"/>
+      <c r="X4" s="471"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
@@ -18453,7 +18453,7 @@
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
       <c r="W5" s="76"/>
-      <c r="X5" s="478"/>
+      <c r="X5" s="471"/>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
@@ -18482,7 +18482,7 @@
       <c r="U6" s="78"/>
       <c r="V6" s="78"/>
       <c r="W6" s="76"/>
-      <c r="X6" s="478"/>
+      <c r="X6" s="471"/>
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
@@ -18511,7 +18511,7 @@
       <c r="U7" s="78"/>
       <c r="V7" s="78"/>
       <c r="W7" s="76"/>
-      <c r="X7" s="478"/>
+      <c r="X7" s="471"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="78"/>
@@ -18537,7 +18537,7 @@
       <c r="U8" s="78"/>
       <c r="V8" s="78"/>
       <c r="W8" s="76"/>
-      <c r="X8" s="478"/>
+      <c r="X8" s="471"/>
     </row>
     <row r="9" spans="1:24" ht="12.75" customHeight="1" thickBot="1">
       <c r="A9" s="78"/>
@@ -18563,18 +18563,18 @@
       <c r="U9" s="78"/>
       <c r="V9" s="78"/>
       <c r="W9" s="76"/>
-      <c r="X9" s="478"/>
+      <c r="X9" s="471"/>
     </row>
     <row r="10" spans="1:24" s="99" customFormat="1" ht="22" customHeight="1" thickTop="1">
-      <c r="A10" s="479" t="s">
+      <c r="A10" s="472" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="479"/>
-      <c r="C10" s="479"/>
-      <c r="D10" s="479"/>
-      <c r="E10" s="479"/>
-      <c r="F10" s="479"/>
-      <c r="G10" s="479"/>
+      <c r="B10" s="472"/>
+      <c r="C10" s="472"/>
+      <c r="D10" s="472"/>
+      <c r="E10" s="472"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="472"/>
       <c r="H10" s="298" t="s">
         <v>83</v>
       </c>
@@ -18621,7 +18621,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="98"/>
-      <c r="X10" s="478"/>
+      <c r="X10" s="471"/>
     </row>
     <row r="11" spans="1:24" ht="17" customHeight="1">
       <c r="A11" s="299">
@@ -39160,13 +39160,13 @@
       </c>
     </row>
     <row r="446" spans="1:24" ht="17" customHeight="1">
-      <c r="A446" s="481"/>
-      <c r="B446" s="482"/>
-      <c r="C446" s="482"/>
-      <c r="D446" s="482"/>
-      <c r="E446" s="482"/>
-      <c r="F446" s="482"/>
-      <c r="G446" s="483"/>
+      <c r="A446" s="474"/>
+      <c r="B446" s="475"/>
+      <c r="C446" s="475"/>
+      <c r="D446" s="475"/>
+      <c r="E446" s="475"/>
+      <c r="F446" s="475"/>
+      <c r="G446" s="476"/>
       <c r="H446" s="304"/>
       <c r="I446" s="301" t="s">
         <v>100</v>
@@ -39194,13 +39194,13 @@
       </c>
     </row>
     <row r="447" spans="1:24" s="84" customFormat="1" ht="17" customHeight="1">
-      <c r="A447" s="484"/>
-      <c r="B447" s="485"/>
-      <c r="C447" s="485"/>
-      <c r="D447" s="485"/>
-      <c r="E447" s="485"/>
-      <c r="F447" s="485"/>
-      <c r="G447" s="486"/>
+      <c r="A447" s="477"/>
+      <c r="B447" s="478"/>
+      <c r="C447" s="478"/>
+      <c r="D447" s="478"/>
+      <c r="E447" s="478"/>
+      <c r="F447" s="478"/>
+      <c r="G447" s="479"/>
       <c r="H447" s="307"/>
       <c r="I447" s="318"/>
       <c r="J447" s="319" t="e">
@@ -39259,13 +39259,13 @@
       <c r="X447" s="289"/>
     </row>
     <row r="448" spans="1:24" ht="17" customHeight="1">
-      <c r="A448" s="480"/>
-      <c r="B448" s="480"/>
-      <c r="C448" s="480"/>
-      <c r="D448" s="480"/>
-      <c r="E448" s="480"/>
-      <c r="F448" s="480"/>
-      <c r="G448" s="480"/>
+      <c r="A448" s="473"/>
+      <c r="B448" s="473"/>
+      <c r="C448" s="473"/>
+      <c r="D448" s="473"/>
+      <c r="E448" s="473"/>
+      <c r="F448" s="473"/>
+      <c r="G448" s="473"/>
       <c r="H448" s="304"/>
       <c r="I448" s="304"/>
       <c r="J448" s="311"/>
@@ -39285,13 +39285,13 @@
       <c r="X448" s="290"/>
     </row>
     <row r="449" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A449" s="477"/>
-      <c r="B449" s="477"/>
-      <c r="C449" s="477"/>
-      <c r="D449" s="477"/>
-      <c r="E449" s="477"/>
-      <c r="F449" s="477"/>
-      <c r="G449" s="477"/>
+      <c r="A449" s="486"/>
+      <c r="B449" s="486"/>
+      <c r="C449" s="486"/>
+      <c r="D449" s="486"/>
+      <c r="E449" s="486"/>
+      <c r="F449" s="486"/>
+      <c r="G449" s="486"/>
       <c r="H449" s="323"/>
       <c r="I449" s="324"/>
       <c r="J449" s="325"/>
@@ -39311,16 +39311,16 @@
       <c r="X449" s="290"/>
     </row>
     <row r="450" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A450" s="474" t="s">
+      <c r="A450" s="483" t="s">
         <v>112</v>
       </c>
-      <c r="B450" s="475"/>
-      <c r="C450" s="475"/>
-      <c r="D450" s="475"/>
-      <c r="E450" s="475"/>
-      <c r="F450" s="475"/>
-      <c r="G450" s="476"/>
-      <c r="H450" s="471">
+      <c r="B450" s="484"/>
+      <c r="C450" s="484"/>
+      <c r="D450" s="484"/>
+      <c r="E450" s="484"/>
+      <c r="F450" s="484"/>
+      <c r="G450" s="485"/>
+      <c r="H450" s="480">
         <f>SUM(H11:H448)</f>
         <v>0</v>
       </c>
@@ -39384,16 +39384,16 @@
       </c>
     </row>
     <row r="451" spans="1:24" ht="17" customHeight="1" thickBot="1">
-      <c r="A451" s="474" t="s">
+      <c r="A451" s="483" t="s">
         <v>113</v>
       </c>
-      <c r="B451" s="475"/>
-      <c r="C451" s="475"/>
-      <c r="D451" s="475"/>
-      <c r="E451" s="475"/>
-      <c r="F451" s="475"/>
-      <c r="G451" s="476"/>
-      <c r="H451" s="472"/>
+      <c r="B451" s="484"/>
+      <c r="C451" s="484"/>
+      <c r="D451" s="484"/>
+      <c r="E451" s="484"/>
+      <c r="F451" s="484"/>
+      <c r="G451" s="485"/>
+      <c r="H451" s="481"/>
       <c r="I451" s="86"/>
       <c r="J451" s="87" t="e">
         <f t="shared" ref="J451:U451" si="74">SUM(J15,J21,J27,J39,J45,J51,J57,J63,J69,J75,J81,J87,J93,J99,J105,J111,J117,J123,J129,J135,J141,J147,J153,J159,J165,J171,J177,J183,J189,J195)+SUM(J201,J207,J213,J219,J225,J231,J237,J243,J249,J255,J261,J267,J273,J279,J285,J291,J297,J303,J309,J315,J321,J327,J333,J339,J345,J351,J357,J363,J369,J375)+SUM(J381,J387,J393,J399,J405,J411,J417,J423,J429,J435,J441,J447)</f>
@@ -39777,16 +39777,16 @@
     <row r="504" ht="17" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H450:H451"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A450:G450"/>
+    <mergeCell ref="A449:G449"/>
+    <mergeCell ref="A451:G451"/>
     <mergeCell ref="X1:X10"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A448:G448"/>
     <mergeCell ref="A446:G446"/>
     <mergeCell ref="A447:G447"/>
-    <mergeCell ref="H450:H451"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A450:G450"/>
-    <mergeCell ref="A449:G449"/>
-    <mergeCell ref="A451:G451"/>
   </mergeCells>
   <pageMargins left="0.67" right="0.27559055118110198" top="0.59055118110236204" bottom="0.70866141732283505" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
